--- a/experimental-data.xlsx
+++ b/experimental-data.xlsx
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="414">
   <si>
     <t>INs Ratios</t>
   </si>
@@ -2195,6 +2195,9 @@
     <t>rat barrel 17~23d</t>
   </si>
   <si>
+    <t>(single-exponential)</t>
+  </si>
+  <si>
     <t>Estimating the Time Course of the Excitatory Synaptic
 Conductance in Neocortical Pyramidal Cells Using a Novel
 Voltage Jump Method</t>
@@ -2637,19 +2640,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.000000000000000\ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000000000\ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0.00\ ;[Red]\(0.00\)"/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="0.00\ ;[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="73">
     <font>
@@ -3014,8 +3017,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3030,16 +3034,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3051,32 +3063,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3097,6 +3114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3106,10 +3131,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3122,29 +3147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3184,7 +3187,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3196,19 +3289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,72 +3313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3299,48 +3320,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,13 +3337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3774,11 +3777,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3798,6 +3825,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3809,6 +3847,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3827,189 +3874,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="24" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4017,7 +4020,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4029,49 +4032,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4080,10 +4083,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4096,98 +4099,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4251,14 +4254,14 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4304,13 +4307,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4319,23 +4325,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4347,10 +4353,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4359,55 +4365,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4519,46 +4525,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="183" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4648,28 +4654,28 @@
     <xf numFmtId="10" fontId="44" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4700,25 +4706,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4800,11 +4806,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52716,7 +52722,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -52764,7 +52770,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -52812,7 +52818,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -52860,7 +52866,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -52908,7 +52914,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -52956,7 +52962,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -53004,7 +53010,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -53052,7 +53058,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205885</xdr:colOff>
+      <xdr:colOff>54120</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>24520</xdr:rowOff>
     </xdr:to>
@@ -53100,7 +53106,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53148,7 +53154,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53196,7 +53202,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53244,7 +53250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53292,7 +53298,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53340,7 +53346,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53388,7 +53394,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53436,7 +53442,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206965</xdr:colOff>
+      <xdr:colOff>55200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43480</xdr:rowOff>
     </xdr:to>
@@ -53484,7 +53490,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53532,7 +53538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53580,7 +53586,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53628,7 +53634,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53676,7 +53682,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53724,7 +53730,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53772,7 +53778,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53820,7 +53826,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53868,7 +53874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53916,7 +53922,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -53964,7 +53970,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207325</xdr:colOff>
+      <xdr:colOff>55560</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>43840</xdr:rowOff>
     </xdr:to>
@@ -54012,7 +54018,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54060,7 +54066,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54108,7 +54114,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54156,7 +54162,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54204,7 +54210,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54252,7 +54258,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54300,7 +54306,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54348,7 +54354,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54396,7 +54402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54444,7 +54450,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54492,7 +54498,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54540,7 +54546,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54588,7 +54594,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205075</xdr:colOff>
+      <xdr:colOff>53310</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>291690</xdr:rowOff>
     </xdr:to>
@@ -54636,7 +54642,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54684,7 +54690,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54732,7 +54738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54780,7 +54786,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54828,7 +54834,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54876,7 +54882,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54924,7 +54930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -54972,7 +54978,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55020,7 +55026,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55068,7 +55074,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55116,7 +55122,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55164,7 +55170,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55212,7 +55218,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>202285</xdr:colOff>
+      <xdr:colOff>50520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>292410</xdr:rowOff>
     </xdr:to>
@@ -55260,7 +55266,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55308,7 +55314,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55356,7 +55362,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55404,7 +55410,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55452,7 +55458,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55500,7 +55506,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55548,7 +55554,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55596,7 +55602,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55644,7 +55650,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55692,7 +55698,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55740,7 +55746,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55788,7 +55794,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55836,7 +55842,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613765</xdr:colOff>
+      <xdr:colOff>462000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>300330</xdr:rowOff>
     </xdr:to>
@@ -55883,8 +55889,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -55931,8 +55937,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -55979,8 +55985,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56027,8 +56033,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56075,8 +56081,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56123,8 +56129,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56171,8 +56177,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56219,8 +56225,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56267,8 +56273,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56315,8 +56321,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56363,8 +56369,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56411,8 +56417,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56459,8 +56465,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70165</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533715</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37050</xdr:rowOff>
     </xdr:to>
@@ -56508,7 +56514,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56556,7 +56562,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56604,7 +56610,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56652,7 +56658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56700,7 +56706,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56748,7 +56754,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56796,7 +56802,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56844,7 +56850,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56892,7 +56898,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56940,7 +56946,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -56988,7 +56994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -57036,7 +57042,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -57084,7 +57090,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228205</xdr:colOff>
+      <xdr:colOff>76440</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38130</xdr:rowOff>
     </xdr:to>
@@ -57131,8 +57137,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57179,8 +57185,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57227,8 +57233,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57275,8 +57281,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57323,8 +57329,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57371,8 +57377,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57419,8 +57425,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57467,8 +57473,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57515,8 +57521,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57563,8 +57569,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57611,8 +57617,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57659,8 +57665,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57707,8 +57713,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76285</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
@@ -57755,8 +57761,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -57803,8 +57809,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -57851,8 +57857,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -57899,8 +57905,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -57947,8 +57953,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -57995,8 +58001,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58043,8 +58049,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58091,8 +58097,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58139,8 +58145,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58187,8 +58193,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58235,8 +58241,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58283,8 +58289,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58331,8 +58337,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77005</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540555</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39210</xdr:rowOff>
     </xdr:to>
@@ -58379,8 +58385,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58427,8 +58433,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58475,8 +58481,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58523,8 +58529,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58571,8 +58577,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58619,8 +58625,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58667,8 +58673,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58715,8 +58721,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58763,8 +58769,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58811,8 +58817,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58859,8 +58865,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58907,8 +58913,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -58955,8 +58961,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77365</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540915</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39570</xdr:rowOff>
     </xdr:to>
@@ -59003,8 +59009,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59051,8 +59057,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59099,8 +59105,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59147,8 +59153,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59195,8 +59201,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59243,8 +59249,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59291,8 +59297,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59339,8 +59345,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59387,8 +59393,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59435,8 +59441,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59483,8 +59489,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59531,8 +59537,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59579,8 +59585,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541275</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>39930</xdr:rowOff>
     </xdr:to>
@@ -59627,8 +59633,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59678,8 +59684,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59729,8 +59735,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59780,8 +59786,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59831,8 +59837,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59882,8 +59888,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59933,8 +59939,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -59984,8 +59990,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -60035,8 +60041,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -60086,8 +60092,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -60137,8 +60143,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -60188,8 +60194,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -60239,8 +60245,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541635</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34410</xdr:rowOff>
     </xdr:to>
@@ -65100,7 +65106,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
     </row>
@@ -65108,13 +65114,13 @@
       <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="305"/>
+      <c r="B2" s="308"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="144"/>
+      <c r="B3" s="147"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -65127,7 +65133,7 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="306" t="s">
+      <c r="G3" s="309" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
@@ -65162,19 +65168,19 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="309">
+      <c r="H4" s="312">
         <f>D4/C4</f>
         <v>0.266201987246033</v>
       </c>
-      <c r="I4" s="309">
+      <c r="I4" s="312">
         <f>E4/C4</f>
         <v>0.099510603588907</v>
       </c>
-      <c r="J4" s="309">
+      <c r="J4" s="312">
         <f>F4/C4</f>
         <v>0.129912501853774</v>
       </c>
-      <c r="K4" s="311">
+      <c r="K4" s="314">
         <f t="shared" ref="K4:K7" si="0">SUM(H4:J4)</f>
         <v>0.495625092688714</v>
       </c>
@@ -65198,19 +65204,19 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="309">
+      <c r="H5" s="312">
         <f>D5/C5</f>
         <v>0.43448883666275</v>
       </c>
-      <c r="I5" s="309">
+      <c r="I5" s="312">
         <f>E5/C5</f>
         <v>0.169212690951821</v>
       </c>
-      <c r="J5" s="309">
+      <c r="J5" s="312">
         <f>F5/C5</f>
         <v>0.0289365452408931</v>
       </c>
-      <c r="K5" s="311">
+      <c r="K5" s="314">
         <f t="shared" si="0"/>
         <v>0.632638072855464</v>
       </c>
@@ -65234,19 +65240,19 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="309">
+      <c r="H6" s="312">
         <f>D6/C6</f>
         <v>0.562757032406646</v>
       </c>
-      <c r="I6" s="309">
+      <c r="I6" s="312">
         <f>E6/C6</f>
         <v>0.198716894226024</v>
       </c>
-      <c r="J6" s="309">
+      <c r="J6" s="312">
         <f>F6/C6</f>
         <v>0.0352031584142129</v>
       </c>
-      <c r="K6" s="311">
+      <c r="K6" s="314">
         <f t="shared" si="0"/>
         <v>0.796677085046883</v>
       </c>
@@ -65270,19 +65276,19 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="309">
+      <c r="H7" s="312">
         <f>D7/C7</f>
         <v>0.388904533934103</v>
       </c>
-      <c r="I7" s="309">
+      <c r="I7" s="312">
         <f>E7/C7</f>
         <v>0.239650802590819</v>
       </c>
-      <c r="J7" s="309">
+      <c r="J7" s="312">
         <f>F7/C7</f>
         <v>0.0802590819487468</v>
       </c>
-      <c r="K7" s="311">
+      <c r="K7" s="314">
         <f t="shared" si="0"/>
         <v>0.708814418473669</v>
       </c>
@@ -65291,13 +65297,13 @@
       <c r="A8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="312"/>
+      <c r="I8" s="312"/>
+      <c r="J8" s="312"/>
+      <c r="K8" s="312"/>
+      <c r="L8" s="315"/>
     </row>
     <row r="9" spans="7:11">
-      <c r="G9" s="306" t="s">
+      <c r="G9" s="309" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
@@ -65309,7 +65315,7 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="312" t="s">
+      <c r="K9" s="315" t="s">
         <v>8</v>
       </c>
     </row>
@@ -65317,7 +65323,7 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="309">
+      <c r="H10" s="312">
         <v>0.253467843631778</v>
       </c>
       <c r="I10">
@@ -65326,7 +65332,7 @@
       <c r="J10">
         <v>0.20173266988678</v>
       </c>
-      <c r="K10" s="311">
+      <c r="K10" s="314">
         <f>SUM(H10:J10)</f>
         <v>0.660749063329402</v>
       </c>
@@ -65335,7 +65341,7 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="309">
+      <c r="H11" s="312">
         <v>0.564943253467843</v>
       </c>
       <c r="I11">
@@ -65344,7 +65350,7 @@
       <c r="J11">
         <v>0.0505423129276476</v>
       </c>
-      <c r="K11" s="311">
+      <c r="K11" s="314">
         <f>SUM(H11:J11)</f>
         <v>0.932005112423233</v>
       </c>
@@ -65353,7 +65359,7 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="309">
+      <c r="H12" s="312">
         <v>0.467843631778058</v>
       </c>
       <c r="I12">
@@ -65362,7 +65368,7 @@
       <c r="J12">
         <v>0.0304882295901412</v>
       </c>
-      <c r="K12" s="311">
+      <c r="K12" s="314">
         <f>SUM(H12:J12)</f>
         <v>0.952304118619144</v>
       </c>
@@ -65371,7 +65377,7 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="309">
+      <c r="H13" s="312">
         <v>0.365699873896595</v>
       </c>
       <c r="I13">
@@ -65380,42 +65386,42 @@
       <c r="J13">
         <v>0.030058817905773</v>
       </c>
-      <c r="K13" s="311">
+      <c r="K13" s="314">
         <f>SUM(H13:J13)</f>
         <v>0.834598540478282</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="307"/>
+      <c r="B15" s="147"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="147"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="G17" s="310" t="s">
+      <c r="B17" s="147"/>
+      <c r="G17" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="310"/>
+      <c r="H17" s="313"/>
+      <c r="I17" s="313"/>
+      <c r="J17" s="313"/>
+      <c r="K17" s="313"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="306"/>
-      <c r="B18" s="306" t="s">
+      <c r="A18" s="309"/>
+      <c r="B18" s="309" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
@@ -65430,19 +65436,19 @@
       <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="310" t="s">
+      <c r="G18" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="310" t="s">
+      <c r="H18" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="310" t="s">
+      <c r="I18" s="313" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="310" t="s">
+      <c r="J18" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="310" t="s">
+      <c r="K18" s="313" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65457,35 +65463,35 @@
         <f>338+338</f>
         <v>676</v>
       </c>
-      <c r="D19" s="307">
+      <c r="D19" s="310">
         <f>C19-(E19+F19)</f>
         <v>520.909980720747</v>
       </c>
-      <c r="E19" s="307">
+      <c r="E19" s="310">
         <f>C19*I4</f>
         <v>67.2691680261011</v>
       </c>
-      <c r="F19" s="307">
+      <c r="F19" s="310">
         <f>C19*J4</f>
         <v>87.8208512531514</v>
       </c>
-      <c r="G19" s="310">
+      <c r="G19" s="313">
         <f>ROUND(B19/8,0)*8</f>
         <v>5096</v>
       </c>
-      <c r="H19" s="310">
+      <c r="H19" s="313">
         <f>ROUND(C19/8,0)*8</f>
         <v>680</v>
       </c>
-      <c r="I19" s="310">
+      <c r="I19" s="313">
         <f>ROUND(D19/8,0)*8</f>
         <v>520</v>
       </c>
-      <c r="J19" s="310">
+      <c r="J19" s="313">
         <f>ROUND(E19/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="K19" s="310">
+      <c r="K19" s="313">
         <f>ROUND(F19/8,0)*8</f>
         <v>88</v>
       </c>
@@ -65500,35 +65506,35 @@
       <c r="C20">
         <v>358</v>
       </c>
-      <c r="D20" s="307">
+      <c r="D20" s="310">
         <f>C20-(E20+F20)</f>
         <v>287.062573443008</v>
       </c>
-      <c r="E20" s="307">
+      <c r="E20" s="310">
         <f>C20*I5</f>
         <v>60.5781433607521</v>
       </c>
-      <c r="F20" s="307">
+      <c r="F20" s="310">
         <f>C20*J5</f>
         <v>10.3592831962397</v>
       </c>
-      <c r="G20" s="310">
+      <c r="G20" s="313">
         <f t="shared" ref="G20:G28" si="1">ROUND(B20/8,0)*8</f>
         <v>4088</v>
       </c>
-      <c r="H20" s="310">
+      <c r="H20" s="313">
         <f t="shared" ref="H20:H28" si="2">ROUND(C20/8,0)*8</f>
         <v>360</v>
       </c>
-      <c r="I20" s="310">
+      <c r="I20" s="313">
         <f t="shared" ref="I20:I28" si="3">ROUND(D20/8,0)*8</f>
         <v>288</v>
       </c>
-      <c r="J20" s="310">
+      <c r="J20" s="313">
         <f t="shared" ref="J20:J28" si="4">ROUND(E20/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="K20" s="310">
+      <c r="K20" s="313">
         <f t="shared" ref="K20:K28" si="5">ROUND(F20/8,0)*8</f>
         <v>8</v>
       </c>
@@ -65544,35 +65550,35 @@
         <f>343+362</f>
         <v>705</v>
       </c>
-      <c r="D21" s="307">
+      <c r="D21" s="310">
         <f>C21-(E21+F21)</f>
         <v>540.086362888633</v>
       </c>
-      <c r="E21" s="307">
+      <c r="E21" s="310">
         <f>C21*I6</f>
         <v>140.095410429347</v>
       </c>
-      <c r="F21" s="307">
+      <c r="F21" s="310">
         <f>C21*J6</f>
         <v>24.8182266820201</v>
       </c>
-      <c r="G21" s="310">
+      <c r="G21" s="313">
         <f t="shared" si="1"/>
         <v>3264</v>
       </c>
-      <c r="H21" s="310">
+      <c r="H21" s="313">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="I21" s="310">
+      <c r="I21" s="313">
         <f t="shared" si="3"/>
         <v>544</v>
       </c>
-      <c r="J21" s="310">
+      <c r="J21" s="313">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="K21" s="310">
+      <c r="K21" s="313">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -65588,35 +65594,35 @@
         <f>337+90</f>
         <v>427</v>
       </c>
-      <c r="D22" s="307">
+      <c r="D22" s="310">
         <f>C22-(E22+F22)</f>
         <v>290.398479301605</v>
       </c>
-      <c r="E22" s="307">
+      <c r="E22" s="310">
         <f>C22*I7</f>
         <v>102.33089270628</v>
       </c>
-      <c r="F22" s="307">
+      <c r="F22" s="310">
         <f>C22*J7</f>
         <v>34.2706279921149</v>
       </c>
-      <c r="G22" s="310">
+      <c r="G22" s="313">
         <f t="shared" si="1"/>
         <v>4424</v>
       </c>
-      <c r="H22" s="310">
+      <c r="H22" s="313">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="I22" s="310">
+      <c r="I22" s="313">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="J22" s="310">
+      <c r="J22" s="313">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="K22" s="310">
+      <c r="K22" s="313">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -65625,18 +65631,18 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="307"/>
-      <c r="E23" s="307"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="310"/>
-      <c r="J23" s="310"/>
-      <c r="K23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="313"/>
+      <c r="H23" s="313"/>
+      <c r="I23" s="313"/>
+      <c r="J23" s="313"/>
+      <c r="K23" s="313"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="306"/>
-      <c r="B24" s="306" t="s">
+      <c r="A24" s="309"/>
+      <c r="B24" s="309" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
@@ -65651,19 +65657,19 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="310" t="s">
+      <c r="G24" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="310" t="s">
+      <c r="H24" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="310" t="s">
+      <c r="I24" s="313" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="310" t="s">
+      <c r="J24" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="310" t="s">
+      <c r="K24" s="313" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65678,35 +65684,35 @@
         <f>338+338</f>
         <v>676</v>
       </c>
-      <c r="D25" s="307">
+      <c r="D25" s="310">
         <f t="shared" ref="D25:D28" si="6">C25-(E25+F25)</f>
         <v>400.677895484406</v>
       </c>
-      <c r="E25" s="307">
+      <c r="E25" s="310">
         <f>C25*I10</f>
         <v>138.950819672131</v>
       </c>
-      <c r="F25" s="307">
+      <c r="F25" s="310">
         <f>C25*J10</f>
         <v>136.371284843463</v>
       </c>
-      <c r="G25" s="310">
+      <c r="G25" s="313">
         <f t="shared" si="1"/>
         <v>5096</v>
       </c>
-      <c r="H25" s="310">
+      <c r="H25" s="313">
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="I25" s="310">
+      <c r="I25" s="313">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J25" s="310">
+      <c r="J25" s="313">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="K25" s="310">
+      <c r="K25" s="313">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
@@ -65721,35 +65727,35 @@
       <c r="C26">
         <v>358</v>
       </c>
-      <c r="D26" s="307">
+      <c r="D26" s="310">
         <f t="shared" si="6"/>
         <v>226.591854493971</v>
       </c>
-      <c r="E26" s="307">
+      <c r="E26" s="310">
         <f>C26*I11</f>
         <v>113.313997477932</v>
       </c>
-      <c r="F26" s="307">
+      <c r="F26" s="310">
         <f>C26*J11</f>
         <v>18.0941480280978</v>
       </c>
-      <c r="G26" s="310">
+      <c r="G26" s="313">
         <f t="shared" si="1"/>
         <v>4088</v>
       </c>
-      <c r="H26" s="310">
+      <c r="H26" s="313">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="I26" s="310">
+      <c r="I26" s="313">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="J26" s="310">
+      <c r="J26" s="313">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="K26" s="310">
+      <c r="K26" s="313">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -65765,35 +65771,35 @@
         <f>343+362</f>
         <v>705</v>
       </c>
-      <c r="D27" s="307">
+      <c r="D27" s="310">
         <f t="shared" si="6"/>
         <v>363.455356777034</v>
       </c>
-      <c r="E27" s="307">
+      <c r="E27" s="310">
         <f>C27*I12</f>
         <v>320.050441361916</v>
       </c>
-      <c r="F27" s="307">
+      <c r="F27" s="310">
         <f>C27*J12</f>
         <v>21.4942018610495</v>
       </c>
-      <c r="G27" s="310">
+      <c r="G27" s="313">
         <f t="shared" si="1"/>
         <v>3264</v>
       </c>
-      <c r="H27" s="310">
+      <c r="H27" s="313">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="I27" s="310">
+      <c r="I27" s="313">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="J27" s="310">
+      <c r="J27" s="313">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="K27" s="310">
+      <c r="K27" s="313">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -65809,35 +65815,35 @@
         <f>337+90</f>
         <v>427</v>
       </c>
-      <c r="D28" s="307">
+      <c r="D28" s="310">
         <f t="shared" si="6"/>
         <v>226.78026936962</v>
       </c>
-      <c r="E28" s="307">
+      <c r="E28" s="310">
         <f>C28*I13</f>
         <v>187.384615384615</v>
       </c>
-      <c r="F28" s="307">
+      <c r="F28" s="310">
         <f>C28*J13</f>
         <v>12.8351152457651</v>
       </c>
-      <c r="G28" s="310">
+      <c r="G28" s="313">
         <f t="shared" si="1"/>
         <v>4424</v>
       </c>
-      <c r="H28" s="310">
+      <c r="H28" s="313">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="I28" s="310">
+      <c r="I28" s="313">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="J28" s="310">
+      <c r="J28" s="313">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="K28" s="310">
+      <c r="K28" s="313">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -65854,14 +65860,14 @@
         <f>SUM(C25:C28)</f>
         <v>2166</v>
       </c>
-      <c r="D29" s="307"/>
-      <c r="E29" s="307"/>
-      <c r="F29" s="307"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="310"/>
-      <c r="I29" s="310"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="310"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="310"/>
+      <c r="F29" s="310"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="313"/>
+      <c r="J29" s="313"/>
+      <c r="K29" s="313"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -65871,14 +65877,14 @@
         <f>B29/C29</f>
         <v>7.79316712834718</v>
       </c>
-      <c r="D30" s="307"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="310"/>
-      <c r="I30" s="310"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="313"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="95"/>
@@ -65889,29 +65895,29 @@
       <c r="B32" s="95"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="144"/>
+      <c r="B34" s="147"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="147"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="306" t="s">
+      <c r="A36" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="G36" s="310" t="s">
+      <c r="B36" s="147"/>
+      <c r="G36" s="313" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="306"/>
-      <c r="B37" s="306" t="s">
+      <c r="A37" s="309"/>
+      <c r="B37" s="309" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
@@ -65926,19 +65932,19 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="310" t="s">
+      <c r="G37" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="310" t="s">
+      <c r="H37" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="310" t="s">
+      <c r="I37" s="313" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="310" t="s">
+      <c r="J37" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="310" t="s">
+      <c r="K37" s="313" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65954,35 +65960,35 @@
         <f>107+123</f>
         <v>230</v>
       </c>
-      <c r="D38" s="308">
+      <c r="D38" s="311">
         <f>C38-E38-F38</f>
         <v>136.325319469546</v>
       </c>
-      <c r="E38" s="308">
+      <c r="E38" s="311">
         <f>C38*I10</f>
         <v>47.2761664564941</v>
       </c>
-      <c r="F38" s="308">
+      <c r="F38" s="311">
         <f>C38*J10</f>
         <v>46.3985140739594</v>
       </c>
-      <c r="G38" s="310">
+      <c r="G38" s="313">
         <f t="shared" ref="G38:G41" si="7">ROUND(B38/8,0)*8</f>
         <v>1688</v>
       </c>
-      <c r="H38" s="310">
+      <c r="H38" s="313">
         <f t="shared" ref="H38:H41" si="8">ROUND(C38/8,0)*8</f>
         <v>232</v>
       </c>
-      <c r="I38" s="310">
+      <c r="I38" s="313">
         <f t="shared" ref="I38:K38" si="9">ROUND(D38/8,0)*8</f>
         <v>136</v>
       </c>
-      <c r="J38" s="310">
+      <c r="J38" s="313">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="K38" s="310">
+      <c r="K38" s="313">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -65997,35 +66003,35 @@
       <c r="C39">
         <v>140</v>
       </c>
-      <c r="D39" s="308">
+      <c r="D39" s="311">
         <f>C39-E39-F39</f>
         <v>88.6113397462454</v>
       </c>
-      <c r="E39" s="308">
+      <c r="E39" s="311">
         <f>C39*I11</f>
         <v>44.3127364438839</v>
       </c>
-      <c r="F39" s="308">
+      <c r="F39" s="311">
         <f>C39*J11</f>
         <v>7.07592380987066</v>
       </c>
-      <c r="G39" s="310">
+      <c r="G39" s="313">
         <f t="shared" si="7"/>
         <v>1656</v>
       </c>
-      <c r="H39" s="310">
+      <c r="H39" s="313">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="I39" s="310">
+      <c r="I39" s="313">
         <f t="shared" ref="I39:K39" si="10">ROUND(D39/8,0)*8</f>
         <v>88</v>
       </c>
-      <c r="J39" s="310">
+      <c r="J39" s="313">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="K39" s="310">
+      <c r="K39" s="313">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -66042,35 +66048,35 @@
         <f>90+131</f>
         <v>221</v>
       </c>
-      <c r="D40" s="308">
+      <c r="D40" s="311">
         <f>C40-E40-F40</f>
         <v>113.93423240812</v>
       </c>
-      <c r="E40" s="308">
+      <c r="E40" s="311">
         <f>C40*I12</f>
         <v>100.327868852459</v>
       </c>
-      <c r="F40" s="308">
+      <c r="F40" s="311">
         <f>C40*J12</f>
         <v>6.7378987394212</v>
       </c>
-      <c r="G40" s="310">
+      <c r="G40" s="313">
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="H40" s="310">
+      <c r="H40" s="313">
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
-      <c r="I40" s="310">
+      <c r="I40" s="313">
         <f t="shared" ref="I40:K40" si="11">ROUND(D40/8,0)*8</f>
         <v>112</v>
       </c>
-      <c r="J40" s="310">
+      <c r="J40" s="313">
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="K40" s="310">
+      <c r="K40" s="313">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
@@ -66085,35 +66091,35 @@
       <c r="C41">
         <v>127</v>
       </c>
-      <c r="D41" s="308">
+      <c r="D41" s="311">
         <f>C41-E41-F41</f>
         <v>67.4498693441258</v>
       </c>
-      <c r="E41" s="308">
+      <c r="E41" s="311">
         <f>C41*I13</f>
         <v>55.7326607818411</v>
       </c>
-      <c r="F41" s="308">
+      <c r="F41" s="311">
         <f>C41*J13</f>
         <v>3.81746987403317</v>
       </c>
-      <c r="G41" s="310">
+      <c r="G41" s="313">
         <f t="shared" si="7"/>
         <v>1288</v>
       </c>
-      <c r="H41" s="310">
+      <c r="H41" s="313">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I41" s="310">
+      <c r="I41" s="313">
         <f t="shared" ref="I41:K41" si="12">ROUND(D41/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="J41" s="310">
+      <c r="J41" s="313">
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="K41" s="310">
+      <c r="K41" s="313">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -66130,9 +66136,9 @@
         <f>SUM(C38:C41)</f>
         <v>718</v>
       </c>
-      <c r="I42" s="310"/>
-      <c r="J42" s="310"/>
-      <c r="K42" s="310"/>
+      <c r="I42" s="313"/>
+      <c r="J42" s="313"/>
+      <c r="K42" s="313"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
@@ -66226,1821 +66232,1821 @@
   <dimension ref="A1:AKZ55"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="12.4166666666667" style="144" customWidth="1"/>
-    <col min="2" max="2" width="15.7962962962963" style="144" customWidth="1"/>
-    <col min="3" max="3" width="11.6018518518519" style="144" customWidth="1"/>
-    <col min="4" max="4" width="11.2962962962963" style="144" customWidth="1"/>
-    <col min="5" max="5" width="11.7037037037037" style="144" customWidth="1"/>
-    <col min="6" max="6" width="10.7962962962963" style="144" customWidth="1"/>
-    <col min="7" max="7" width="10.2037037037037" style="144" customWidth="1"/>
-    <col min="8" max="8" width="10.8981481481481" style="144" customWidth="1"/>
-    <col min="9" max="9" width="9.2962962962963" style="144" customWidth="1"/>
-    <col min="10" max="10" width="9.60185185185185" style="144" customWidth="1"/>
-    <col min="11" max="11" width="9.7037037037037" style="144" customWidth="1"/>
-    <col min="12" max="12" width="10.1018518518519" style="144" customWidth="1"/>
-    <col min="13" max="13" width="11.1018518518519" style="144" customWidth="1"/>
-    <col min="14" max="14" width="10" style="144" customWidth="1"/>
-    <col min="15" max="15" width="9.10185185185185" style="144" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="144" customWidth="1"/>
-    <col min="17" max="17" width="27.1018518518519" style="144" customWidth="1"/>
-    <col min="18" max="18" width="84.7037037037037" style="144" customWidth="1"/>
-    <col min="19" max="987" width="8.5" style="144" customWidth="1"/>
+    <col min="1" max="1" width="12.4166666666667" style="147" customWidth="1"/>
+    <col min="2" max="2" width="15.7962962962963" style="147" customWidth="1"/>
+    <col min="3" max="3" width="11.6018518518519" style="147" customWidth="1"/>
+    <col min="4" max="4" width="11.2962962962963" style="147" customWidth="1"/>
+    <col min="5" max="5" width="11.7037037037037" style="147" customWidth="1"/>
+    <col min="6" max="6" width="10.7962962962963" style="147" customWidth="1"/>
+    <col min="7" max="7" width="10.2037037037037" style="147" customWidth="1"/>
+    <col min="8" max="8" width="10.8981481481481" style="147" customWidth="1"/>
+    <col min="9" max="9" width="9.2962962962963" style="147" customWidth="1"/>
+    <col min="10" max="10" width="9.60185185185185" style="147" customWidth="1"/>
+    <col min="11" max="11" width="9.7037037037037" style="147" customWidth="1"/>
+    <col min="12" max="12" width="10.1018518518519" style="147" customWidth="1"/>
+    <col min="13" max="13" width="11.1018518518519" style="147" customWidth="1"/>
+    <col min="14" max="14" width="10" style="147" customWidth="1"/>
+    <col min="15" max="15" width="9.10185185185185" style="147" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="147" customWidth="1"/>
+    <col min="17" max="17" width="27.1018518518519" style="147" customWidth="1"/>
+    <col min="18" max="18" width="84.7037037037037" style="147" customWidth="1"/>
+    <col min="19" max="987" width="8.5" style="147" customWidth="1"/>
     <col min="988" max="1020" width="8.5" customWidth="1"/>
     <col min="1021" max="1022" width="10.8981481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="270" t="s">
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
     </row>
     <row r="2" ht="13.35" spans="1:988">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="149" t="s">
+      <c r="L2" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="149" t="s">
+      <c r="M2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="271" t="s">
+      <c r="O2" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="Q2" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="144" t="s">
+      <c r="R2" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="144" t="s">
+      <c r="S2" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="AKZ2" s="144"/>
+      <c r="AKZ2" s="147"/>
     </row>
     <row r="3" ht="63" spans="1:988">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="211" t="s">
+      <c r="E3" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="212"/>
-      <c r="G3" s="213" t="s">
+      <c r="F3" s="215"/>
+      <c r="G3" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="213"/>
-      <c r="J3" s="151" t="s">
+      <c r="I3" s="216"/>
+      <c r="J3" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="254" t="s">
+      <c r="K3" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="254" t="s">
+      <c r="L3" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="151" t="s">
+      <c r="M3" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="213"/>
-      <c r="O3" s="272"/>
-      <c r="Q3" s="144" t="s">
+      <c r="N3" s="216"/>
+      <c r="O3" s="275"/>
+      <c r="Q3" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="306" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="144" t="s">
+      <c r="S3" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="AKZ3" s="144"/>
+      <c r="AKZ3" s="147"/>
     </row>
     <row r="4" ht="25.2" spans="1:988">
-      <c r="A4" s="153"/>
-      <c r="B4" s="154" t="s">
+      <c r="A4" s="156"/>
+      <c r="B4" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="164" t="s">
+      <c r="F4" s="217"/>
+      <c r="G4" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="255" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="156" t="s">
+      <c r="L4" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="273"/>
-      <c r="Q4" s="144" t="s">
+      <c r="M4" s="158"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="276"/>
+      <c r="Q4" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="303" t="s">
+      <c r="R4" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="144" t="s">
+      <c r="S4" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="AKZ4" s="144"/>
+      <c r="AKZ4" s="147"/>
     </row>
     <row r="5" ht="37.8" spans="1:988">
-      <c r="A5" s="153"/>
-      <c r="B5" s="154" t="s">
+      <c r="A5" s="156"/>
+      <c r="B5" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="156"/>
-      <c r="F5" s="215" t="s">
+      <c r="E5" s="159"/>
+      <c r="F5" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="255"/>
-      <c r="K5" s="156" t="s">
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="156"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="273"/>
-      <c r="Q5" s="144" t="s">
+      <c r="L5" s="159"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="276"/>
+      <c r="Q5" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="304" t="s">
+      <c r="R5" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="144" t="s">
+      <c r="S5" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="AKZ5" s="144"/>
+      <c r="AKZ5" s="147"/>
     </row>
     <row r="6" ht="37.8" spans="1:988">
-      <c r="A6" s="153"/>
-      <c r="B6" s="154" t="s">
+      <c r="A6" s="156"/>
+      <c r="B6" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="275"/>
-      <c r="O6" s="276"/>
-      <c r="Q6" s="144" t="s">
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="277"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="279"/>
+      <c r="Q6" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="304" t="s">
+      <c r="R6" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="144" t="s">
+      <c r="S6" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ6" s="144"/>
+      <c r="AKZ6" s="147"/>
     </row>
     <row r="7" ht="75.6" spans="1:988">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="162" t="s">
+      <c r="D7" s="162"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="166" t="s">
+      <c r="I7" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="162" t="s">
+      <c r="J7" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="277"/>
-      <c r="Q7" s="144" t="s">
+      <c r="N7" s="169"/>
+      <c r="O7" s="280"/>
+      <c r="Q7" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="144" t="s">
+      <c r="R7" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="144" t="s">
+      <c r="S7" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="AKZ7" s="144"/>
+      <c r="AKZ7" s="147"/>
     </row>
     <row r="8" ht="88.2" spans="1:988">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="155" t="s">
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="161" t="s">
+      <c r="I8" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="155"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="273"/>
-      <c r="Q8" s="144" t="s">
+      <c r="J8" s="158"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="276"/>
+      <c r="Q8" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="303" t="s">
+      <c r="R8" s="306" t="s">
         <v>77</v>
       </c>
-      <c r="AKZ8" s="144"/>
+      <c r="AKZ8" s="147"/>
     </row>
     <row r="9" ht="50.4" spans="1:988">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154" t="s">
+      <c r="A9" s="156"/>
+      <c r="B9" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="219" t="s">
+      <c r="C9" s="158"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="155"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="273"/>
-      <c r="Q9" s="144" t="s">
+      <c r="J9" s="158"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="276"/>
+      <c r="Q9" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="304" t="s">
+      <c r="R9" s="307" t="s">
         <v>82</v>
       </c>
-      <c r="S9" s="144" t="s">
+      <c r="S9" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="AKZ9" s="144"/>
+      <c r="AKZ9" s="147"/>
     </row>
     <row r="10" ht="63" spans="1:988">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="220"/>
-      <c r="G10" s="162" t="s">
+      <c r="F10" s="223"/>
+      <c r="G10" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="162" t="s">
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="163" t="s">
+      <c r="K10" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="257" t="s">
+      <c r="L10" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="162" t="s">
+      <c r="M10" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="166"/>
-      <c r="O10" s="277"/>
-      <c r="Q10" s="144" t="s">
+      <c r="N10" s="169"/>
+      <c r="O10" s="280"/>
+      <c r="Q10" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="303" t="s">
+      <c r="R10" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="144" t="s">
+      <c r="S10" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="AKZ10" s="144"/>
+      <c r="AKZ10" s="147"/>
     </row>
     <row r="11" ht="25.2" spans="1:988">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154" t="s">
+      <c r="A11" s="156"/>
+      <c r="B11" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="221"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="160" t="s">
+      <c r="F11" s="224"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="164" t="s">
+      <c r="K11" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="258" t="s">
+      <c r="L11" s="261" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="155"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="273"/>
-      <c r="Q11" s="144" t="s">
+      <c r="M11" s="158"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="276"/>
+      <c r="Q11" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="304" t="s">
+      <c r="R11" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="144" t="s">
+      <c r="S11" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ11" s="144"/>
+      <c r="AKZ11" s="147"/>
     </row>
     <row r="12" ht="25.2" spans="1:988">
-      <c r="A12" s="153"/>
-      <c r="B12" s="154" t="s">
+      <c r="A12" s="156"/>
+      <c r="B12" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="259" t="s">
+      <c r="E12" s="167"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="263" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="261"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="273"/>
-      <c r="Q12" s="144" t="s">
+      <c r="L12" s="264"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="276"/>
+      <c r="Q12" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="304" t="s">
+      <c r="R12" s="307" t="s">
         <v>108</v>
       </c>
-      <c r="AKZ12" s="144"/>
+      <c r="AKZ12" s="147"/>
     </row>
     <row r="13" ht="51.15" spans="1:988">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="162" t="s">
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="166"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="161" t="s">
+      <c r="H13" s="169"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="162" t="s">
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="166"/>
-      <c r="O13" s="277"/>
-      <c r="Q13" s="144" t="s">
+      <c r="N13" s="169"/>
+      <c r="O13" s="280"/>
+      <c r="Q13" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="304" t="s">
+      <c r="R13" s="307" t="s">
         <v>114</v>
       </c>
-      <c r="AKZ13" s="144"/>
+      <c r="AKZ13" s="147"/>
     </row>
     <row r="14" ht="25.95" spans="1:988">
-      <c r="A14" s="165"/>
-      <c r="B14" s="154" t="s">
+      <c r="A14" s="168"/>
+      <c r="B14" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="273"/>
-      <c r="Q14" s="144" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="276"/>
+      <c r="Q14" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="R14" s="304" t="s">
+      <c r="R14" s="307" t="s">
         <v>116</v>
       </c>
-      <c r="AKZ14" s="144"/>
+      <c r="AKZ14" s="147"/>
     </row>
     <row r="15" ht="25.95" spans="1:988">
-      <c r="A15" s="165"/>
-      <c r="B15" s="167" t="s">
+      <c r="A15" s="168"/>
+      <c r="B15" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="278"/>
-      <c r="Q15" s="144" t="s">
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="281"/>
+      <c r="Q15" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="304" t="s">
+      <c r="R15" s="307" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="144" t="s">
+      <c r="S15" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ15" s="144"/>
+      <c r="AKZ15" s="147"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:988">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="R16" s="304"/>
-      <c r="AKZ16" s="144"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="R16" s="307"/>
+      <c r="AKZ16" s="147"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147" t="s">
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147" t="s">
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="270" t="s">
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="270"/>
-      <c r="O17" s="270"/>
+      <c r="N17" s="273"/>
+      <c r="O17" s="273"/>
     </row>
     <row r="18" ht="13.35" spans="1:988">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173" t="s">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="173" t="s">
+      <c r="D18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="173" t="s">
+      <c r="E18" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="173" t="s">
+      <c r="I18" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="173" t="s">
+      <c r="J18" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="173" t="s">
+      <c r="K18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="173" t="s">
+      <c r="L18" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="173" t="s">
+      <c r="M18" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="173" t="s">
+      <c r="N18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="279" t="s">
+      <c r="O18" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="AKZ18" s="144"/>
+      <c r="AKZ18" s="147"/>
     </row>
     <row r="19" ht="13.35" spans="1:15">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="177">
         <f>(88+10+22+96)/(950+183+182+513)</f>
         <v>0.118161925601751</v>
       </c>
-      <c r="D19" s="175">
+      <c r="D19" s="178">
         <v>0.43</v>
       </c>
-      <c r="E19" s="225">
+      <c r="E19" s="228">
         <f>35/56</f>
         <v>0.625</v>
       </c>
-      <c r="F19" s="226"/>
-      <c r="G19" s="227">
+      <c r="F19" s="229"/>
+      <c r="G19" s="230">
         <f>(25+25)/(208+172)</f>
         <v>0.131578947368421</v>
       </c>
-      <c r="H19" s="228"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="263">
+      <c r="H19" s="231"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="266">
         <f>(9+2+1+3)/(209+89+104+167)</f>
         <v>0.0263620386643234</v>
       </c>
-      <c r="K19" s="175">
+      <c r="K19" s="178">
         <f>7/69</f>
         <v>0.101449275362319</v>
       </c>
-      <c r="L19" s="175">
+      <c r="L19" s="178">
         <f>21/100</f>
         <v>0.21</v>
       </c>
-      <c r="M19" s="263">
+      <c r="M19" s="266">
         <v>0</v>
       </c>
-      <c r="N19" s="262"/>
-      <c r="O19" s="280"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="283"/>
     </row>
     <row r="20" ht="13.35" spans="1:15">
-      <c r="A20" s="150"/>
-      <c r="B20" s="154" t="s">
+      <c r="A20" s="153"/>
+      <c r="B20" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="176">
+      <c r="C20" s="179">
         <v>0.51</v>
       </c>
-      <c r="D20" s="177">
+      <c r="D20" s="180">
         <f>168/359</f>
         <v>0.467966573816156</v>
       </c>
-      <c r="E20" s="183">
+      <c r="E20" s="186">
         <f>9/31</f>
         <v>0.290322580645161</v>
       </c>
-      <c r="F20" s="229"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="186">
+      <c r="F20" s="232"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="189">
         <f>5/173</f>
         <v>0.0289017341040462</v>
       </c>
-      <c r="K20" s="177">
+      <c r="K20" s="180">
         <f>24/110</f>
         <v>0.218181818181818</v>
       </c>
-      <c r="L20" s="177">
+      <c r="L20" s="180">
         <f>31/123</f>
         <v>0.252032520325203</v>
       </c>
-      <c r="M20" s="176"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="281"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="284"/>
     </row>
     <row r="21" ht="13.35" spans="1:15">
-      <c r="A21" s="150"/>
-      <c r="B21" s="154" t="s">
+      <c r="A21" s="153"/>
+      <c r="B21" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="176">
+      <c r="C21" s="179">
         <v>0.31</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="180">
         <f>12/21</f>
         <v>0.571428571428571</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="203">
         <f>4/112</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="F21" s="231">
+      <c r="F21" s="234">
         <f>11/31</f>
         <v>0.354838709677419</v>
       </c>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="177">
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="180">
         <f>1/40</f>
         <v>0.025</v>
       </c>
-      <c r="L21" s="177"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="281"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="284"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="150"/>
-      <c r="B22" s="154" t="s">
+      <c r="A22" s="153"/>
+      <c r="B22" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="264"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="282"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="236"/>
+      <c r="L22" s="268"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="236"/>
+      <c r="O22" s="285"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="180">
+      <c r="C23" s="183">
         <f>(2+4)/(208+170)</f>
         <v>0.0158730158730159</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="184">
+      <c r="D23" s="184"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="187">
         <f>254/1046</f>
         <v>0.24282982791587</v>
       </c>
-      <c r="H23" s="188">
+      <c r="H23" s="191">
         <v>0.63</v>
       </c>
-      <c r="I23" s="237">
+      <c r="I23" s="240">
         <v>0.38</v>
       </c>
-      <c r="J23" s="187">
+      <c r="J23" s="190">
         <f>(2+1)/(275+137)</f>
         <v>0.00728155339805825</v>
       </c>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="236">
+      <c r="K23" s="240"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="239">
         <v>0</v>
       </c>
-      <c r="N23" s="237"/>
-      <c r="O23" s="283"/>
+      <c r="N23" s="240"/>
+      <c r="O23" s="286"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="153"/>
-      <c r="B24" s="154" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="180">
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="237"/>
+      <c r="G24" s="183">
         <v>0.129</v>
       </c>
-      <c r="H24" s="183">
+      <c r="H24" s="186">
         <v>0.48</v>
       </c>
-      <c r="I24" s="183">
+      <c r="I24" s="186">
         <v>0.56</v>
       </c>
-      <c r="J24" s="176"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="281"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="284"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="153"/>
-      <c r="B25" s="154" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="180">
+      <c r="C25" s="179"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="183">
         <f>8/64</f>
         <v>0.125</v>
       </c>
-      <c r="H25" s="183">
+      <c r="H25" s="186">
         <v>0.61</v>
       </c>
-      <c r="I25" s="189">
+      <c r="I25" s="192">
         <f>2/52</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="J25" s="176"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="281"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="179"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="284"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="184">
+      <c r="C26" s="187">
         <f>(20+9+5+20)/(211+108+87+164)</f>
         <v>0.0947368421052632</v>
       </c>
-      <c r="D26" s="185">
+      <c r="D26" s="188">
         <f>11/185</f>
         <v>0.0594594594594595</v>
       </c>
-      <c r="E26" s="185">
+      <c r="E26" s="188">
         <f>6/74</f>
         <v>0.0810810810810811</v>
       </c>
-      <c r="F26" s="235"/>
-      <c r="G26" s="236">
+      <c r="F26" s="238"/>
+      <c r="G26" s="239">
         <f>(32+11)/(276+136)</f>
         <v>0.104368932038835</v>
       </c>
-      <c r="H26" s="237"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="184">
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="187">
         <f>(178+14+3+40)/(934+175+174+555)</f>
         <v>0.127856365614799</v>
       </c>
-      <c r="K26" s="185">
+      <c r="K26" s="188">
         <f>33/132</f>
         <v>0.25</v>
       </c>
-      <c r="L26" s="266">
+      <c r="L26" s="269">
         <f>24/114</f>
         <v>0.210526315789474</v>
       </c>
-      <c r="M26" s="236">
+      <c r="M26" s="239">
         <f>(1+2)/(160+100)</f>
         <v>0.0115384615384615</v>
       </c>
-      <c r="N26" s="237"/>
-      <c r="O26" s="283"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="286"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154" t="s">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="186">
+      <c r="C27" s="189">
         <f>5/63</f>
         <v>0.0793650793650794</v>
       </c>
-      <c r="D27" s="177">
+      <c r="D27" s="180">
         <f>15/110</f>
         <v>0.136363636363636</v>
       </c>
-      <c r="E27" s="177">
+      <c r="E27" s="180">
         <f>2/40</f>
         <v>0.05</v>
       </c>
-      <c r="F27" s="238"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="186">
+      <c r="F27" s="241"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="189">
         <f>13/115</f>
         <v>0.11304347826087</v>
       </c>
-      <c r="K27" s="177">
+      <c r="K27" s="180">
         <f>32/67</f>
         <v>0.477611940298507</v>
       </c>
-      <c r="L27" s="231">
+      <c r="L27" s="234">
         <f>26/75</f>
         <v>0.346666666666667</v>
       </c>
-      <c r="M27" s="176"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="281"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="284"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="186">
+      <c r="C28" s="189">
         <f>10/89</f>
         <v>0.112359550561798</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D28" s="180">
         <f>1/123</f>
         <v>0.00813008130081301</v>
       </c>
-      <c r="E28" s="239"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="267">
+      <c r="E28" s="242"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="270">
         <f>8/102</f>
         <v>0.0784313725490196</v>
       </c>
-      <c r="K28" s="268">
+      <c r="K28" s="271">
         <f>12/76</f>
         <v>0.157894736842105</v>
       </c>
-      <c r="L28" s="247">
+      <c r="L28" s="250">
         <f>14/281</f>
         <v>0.0498220640569395</v>
       </c>
-      <c r="M28" s="176"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="281"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="284"/>
     </row>
     <row r="29" ht="13.35" spans="1:15">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="187">
+      <c r="C29" s="190">
         <v>0</v>
       </c>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="187">
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="190">
         <f>3/93</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="H29" s="188"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="189">
+      <c r="H29" s="191"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="192">
         <f>(5+7)/(158+100)</f>
         <v>0.0465116279069767</v>
       </c>
-      <c r="K29" s="189"/>
-      <c r="L29" s="189"/>
-      <c r="M29" s="187">
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="190">
         <f>15/532</f>
         <v>0.0281954887218045</v>
       </c>
-      <c r="N29" s="284">
+      <c r="N29" s="287">
         <f t="shared" ref="N29:N31" si="0">AVERAGE(D19,H23,K26)</f>
         <v>0.436666666666667</v>
       </c>
-      <c r="O29" s="285">
+      <c r="O29" s="288">
         <f t="shared" ref="O29:O31" si="1">AVERAGE(E19,I23,L26)</f>
         <v>0.405175438596491</v>
       </c>
     </row>
     <row r="30" ht="13.35" spans="1:15">
-      <c r="A30" s="165"/>
-      <c r="B30" s="154" t="s">
+      <c r="A30" s="168"/>
+      <c r="B30" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="180"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="286">
+      <c r="C30" s="183"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="192"/>
+      <c r="M30" s="289">
         <f>AVERAGE(C20,G24,J27)</f>
         <v>0.25068115942029</v>
       </c>
-      <c r="N30" s="287">
+      <c r="N30" s="290">
         <f t="shared" si="0"/>
         <v>0.475192838038221</v>
       </c>
-      <c r="O30" s="288">
+      <c r="O30" s="291">
         <f t="shared" si="1"/>
         <v>0.398996415770609</v>
       </c>
     </row>
     <row r="31" ht="13.35" spans="1:15">
-      <c r="A31" s="165"/>
-      <c r="B31" s="167" t="s">
+      <c r="A31" s="168"/>
+      <c r="B31" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="191"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="289">
+      <c r="C31" s="193"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="292">
         <f>AVERAGE(C21,G25,J28)</f>
         <v>0.171143790849673</v>
       </c>
-      <c r="N31" s="290">
+      <c r="N31" s="293">
         <f t="shared" si="0"/>
         <v>0.446441102756892</v>
       </c>
-      <c r="O31" s="291">
+      <c r="O31" s="294">
         <f t="shared" si="1"/>
         <v>0.0413326294109212</v>
       </c>
     </row>
     <row r="32" ht="25.2" spans="1:15">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="292"/>
-      <c r="N32" s="292"/>
-      <c r="O32" s="292"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="295"/>
+      <c r="N32" s="295"/>
+      <c r="O32" s="295"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="196"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="292"/>
-      <c r="N33" s="292"/>
-      <c r="O33" s="292"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="295"/>
+      <c r="N33" s="295"/>
+      <c r="O33" s="295"/>
     </row>
     <row r="34" ht="13.35" spans="1:15">
-      <c r="A34" s="170" t="s">
+      <c r="A34" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="292"/>
-      <c r="N34" s="292"/>
-      <c r="O34" s="292"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="295"/>
+      <c r="N34" s="295"/>
+      <c r="O34" s="295"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="145"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147" t="s">
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147" t="s">
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147" t="s">
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="270" t="s">
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="N35" s="270"/>
-      <c r="O35" s="270"/>
+      <c r="N35" s="273"/>
+      <c r="O35" s="273"/>
     </row>
     <row r="36" ht="13.35" spans="1:15">
-      <c r="A36" s="172"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173" t="s">
+      <c r="A36" s="175"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="173" t="s">
+      <c r="D36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="173" t="s">
+      <c r="E36" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="173" t="s">
+      <c r="F36" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="173" t="s">
+      <c r="G36" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="173" t="s">
+      <c r="I36" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="173" t="s">
+      <c r="J36" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="173" t="s">
+      <c r="K36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="173" t="s">
+      <c r="L36" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="173" t="s">
+      <c r="M36" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="173" t="s">
+      <c r="N36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="O36" s="279" t="s">
+      <c r="O36" s="282" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" ht="13.35" spans="1:15">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="197"/>
-      <c r="D37" s="198">
+      <c r="C37" s="200"/>
+      <c r="D37" s="201">
         <f>17/49</f>
         <v>0.346938775510204</v>
       </c>
-      <c r="E37" s="198">
+      <c r="E37" s="201">
         <f>11/53</f>
         <v>0.207547169811321</v>
       </c>
-      <c r="F37" s="244">
+      <c r="F37" s="247">
         <f>1/48</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="G37" s="198"/>
-      <c r="H37" s="245">
+      <c r="G37" s="201"/>
+      <c r="H37" s="248">
         <f>7/16</f>
         <v>0.4375</v>
       </c>
-      <c r="I37" s="198">
+      <c r="I37" s="201">
         <f>3/11</f>
         <v>0.272727272727273</v>
       </c>
-      <c r="J37" s="197"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="245">
+      <c r="J37" s="200"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="248">
         <f>1/15</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="M37" s="197"/>
-      <c r="N37" s="245">
+      <c r="M37" s="200"/>
+      <c r="N37" s="248">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="O37" s="293"/>
+      <c r="O37" s="296"/>
     </row>
     <row r="38" ht="13.35" spans="1:15">
-      <c r="A38" s="150"/>
-      <c r="B38" s="154" t="s">
+      <c r="A38" s="153"/>
+      <c r="B38" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="199">
+      <c r="C38" s="202">
         <f>19/50</f>
         <v>0.38</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="203">
         <f>36/97</f>
         <v>0.371134020618557</v>
       </c>
-      <c r="E38" s="201">
+      <c r="E38" s="204">
         <f>10/64</f>
         <v>0.15625</v>
       </c>
-      <c r="F38" s="246">
+      <c r="F38" s="249">
         <f>1/47</f>
         <v>0.0212765957446809</v>
       </c>
-      <c r="G38" s="200">
+      <c r="G38" s="203">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="H38" s="200">
+      <c r="H38" s="203">
         <f>4/19</f>
         <v>0.210526315789474</v>
       </c>
-      <c r="I38" s="201"/>
-      <c r="J38" s="204">
+      <c r="I38" s="204"/>
+      <c r="J38" s="207">
         <f>1/(8+20)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="K38" s="200">
+      <c r="K38" s="203">
         <f>1/17</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="L38" s="201"/>
-      <c r="M38" s="204">
+      <c r="L38" s="204"/>
+      <c r="M38" s="207">
         <f>0/11</f>
         <v>0</v>
       </c>
-      <c r="N38" s="201"/>
-      <c r="O38" s="294"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="297"/>
     </row>
     <row r="39" ht="13.35" spans="1:15">
-      <c r="A39" s="150"/>
-      <c r="B39" s="154" t="s">
+      <c r="A39" s="153"/>
+      <c r="B39" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="199">
+      <c r="C39" s="202">
         <f>16/59</f>
         <v>0.271186440677966</v>
       </c>
-      <c r="D39" s="201">
+      <c r="D39" s="204">
         <f>5/68</f>
         <v>0.0735294117647059</v>
       </c>
-      <c r="E39" s="200">
+      <c r="E39" s="203">
         <f>4/112</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="F39" s="246">
+      <c r="F39" s="249">
         <f>4/27</f>
         <v>0.148148148148148</v>
       </c>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="200">
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="203">
         <f>0/14</f>
         <v>0</v>
       </c>
-      <c r="M39" s="199"/>
-      <c r="N39" s="201"/>
-      <c r="O39" s="294"/>
+      <c r="M39" s="202"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="297"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="150"/>
-      <c r="B40" s="154" t="s">
+      <c r="A40" s="153"/>
+      <c r="B40" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="202">
+      <c r="C40" s="205">
         <f>9/51</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="D40" s="203">
+      <c r="D40" s="206">
         <f>0/47</f>
         <v>0</v>
       </c>
-      <c r="E40" s="203">
+      <c r="E40" s="206">
         <f>4/27</f>
         <v>0.148148148148148</v>
       </c>
-      <c r="F40" s="247">
+      <c r="F40" s="250">
         <f>0/118</f>
         <v>0</v>
       </c>
-      <c r="G40" s="203">
+      <c r="G40" s="206">
         <f>1/22</f>
         <v>0.0454545454545455</v>
       </c>
-      <c r="H40" s="203">
+      <c r="H40" s="206">
         <f>0/10</f>
         <v>0</v>
       </c>
-      <c r="I40" s="203">
+      <c r="I40" s="206">
         <f>4/24</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="J40" s="202">
+      <c r="J40" s="205">
         <f>0/(8+11)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="203">
+      <c r="K40" s="206">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="L40" s="203">
+      <c r="L40" s="206">
         <f>3/18</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="M40" s="295"/>
-      <c r="N40" s="296"/>
-      <c r="O40" s="297"/>
+      <c r="M40" s="298"/>
+      <c r="N40" s="299"/>
+      <c r="O40" s="300"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="154" t="s">
+      <c r="B41" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200">
+      <c r="C41" s="202"/>
+      <c r="D41" s="203">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-      <c r="E41" s="201">
+      <c r="E41" s="204">
         <f>1/23</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="F41" s="246">
+      <c r="F41" s="249">
         <f>0/19</f>
         <v>0</v>
       </c>
-      <c r="G41" s="205"/>
-      <c r="H41" s="207">
+      <c r="G41" s="208"/>
+      <c r="H41" s="210">
         <f>7/34</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="I41" s="207">
+      <c r="I41" s="210">
         <f>4/13</f>
         <v>0.307692307692308</v>
       </c>
-      <c r="J41" s="249"/>
-      <c r="K41" s="206">
+      <c r="J41" s="252"/>
+      <c r="K41" s="209">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="L41" s="206">
+      <c r="L41" s="209">
         <f>1/19</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="M41" s="205"/>
-      <c r="N41" s="207"/>
-      <c r="O41" s="298"/>
+      <c r="M41" s="208"/>
+      <c r="N41" s="210"/>
+      <c r="O41" s="301"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="153"/>
-      <c r="B42" s="154" t="s">
+      <c r="A42" s="156"/>
+      <c r="B42" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="204">
+      <c r="C42" s="207">
         <f>5/16</f>
         <v>0.3125</v>
       </c>
-      <c r="D42" s="200">
+      <c r="D42" s="203">
         <f>3/17</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="E42" s="201"/>
-      <c r="F42" s="246">
+      <c r="E42" s="204"/>
+      <c r="F42" s="249">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="G42" s="199">
+      <c r="G42" s="202">
         <f>4/33</f>
         <v>0.121212121212121</v>
       </c>
-      <c r="H42" s="201">
+      <c r="H42" s="204">
         <f>26/55</f>
         <v>0.472727272727273</v>
       </c>
-      <c r="I42" s="201">
+      <c r="I42" s="204">
         <f>0/2</f>
         <v>0</v>
       </c>
-      <c r="J42" s="204">
+      <c r="J42" s="207">
         <f>0/(9+15)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="200">
+      <c r="K42" s="203">
         <f>6/25</f>
         <v>0.24</v>
       </c>
-      <c r="L42" s="200"/>
-      <c r="M42" s="199"/>
-      <c r="N42" s="201"/>
-      <c r="O42" s="294"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="202"/>
+      <c r="N42" s="204"/>
+      <c r="O42" s="297"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="153"/>
-      <c r="B43" s="154" t="s">
+      <c r="A43" s="156"/>
+      <c r="B43" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="204">
+      <c r="C43" s="207">
         <f>1/11</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="D43" s="200"/>
-      <c r="E43" s="201"/>
-      <c r="F43" s="246">
+      <c r="D43" s="203"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="249">
         <f>4/24</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="G43" s="199">
+      <c r="G43" s="202">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="H43" s="201">
+      <c r="H43" s="204">
         <f>0/2</f>
         <v>0</v>
       </c>
-      <c r="I43" s="201">
+      <c r="I43" s="204">
         <f>0/39</f>
         <v>0</v>
       </c>
-      <c r="J43" s="204">
+      <c r="J43" s="207">
         <f>1/(7+6)</f>
         <v>0.0769230769230769</v>
       </c>
-      <c r="K43" s="200"/>
-      <c r="L43" s="200">
+      <c r="K43" s="203"/>
+      <c r="L43" s="203">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="M43" s="199"/>
-      <c r="N43" s="201"/>
-      <c r="O43" s="294"/>
+      <c r="M43" s="202"/>
+      <c r="N43" s="204"/>
+      <c r="O43" s="297"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="153" t="s">
+      <c r="A44" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="206">
+      <c r="C44" s="208"/>
+      <c r="D44" s="209">
         <f>1/(11+17)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="E44" s="207"/>
-      <c r="F44" s="248">
+      <c r="E44" s="210"/>
+      <c r="F44" s="251">
         <f>0/(6+8)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="249"/>
-      <c r="H44" s="206">
+      <c r="G44" s="252"/>
+      <c r="H44" s="209">
         <f>(2+2)/(9+13)</f>
         <v>0.181818181818182</v>
       </c>
-      <c r="I44" s="206">
+      <c r="I44" s="209">
         <f>0/(7+4)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="205"/>
-      <c r="K44" s="206">
+      <c r="J44" s="208"/>
+      <c r="K44" s="209">
         <f>(8+2)/(38+34)</f>
         <v>0.138888888888889</v>
       </c>
-      <c r="L44" s="248">
+      <c r="L44" s="251">
         <f>(13+3)/(46+37)</f>
         <v>0.192771084337349</v>
       </c>
-      <c r="M44" s="205"/>
-      <c r="N44" s="207"/>
-      <c r="O44" s="298"/>
+      <c r="M44" s="208"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="301"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="153"/>
-      <c r="B45" s="154" t="s">
+      <c r="A45" s="156"/>
+      <c r="B45" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="199"/>
-      <c r="D45" s="200">
+      <c r="C45" s="202"/>
+      <c r="D45" s="203">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-      <c r="E45" s="201"/>
-      <c r="F45" s="246">
+      <c r="E45" s="204"/>
+      <c r="F45" s="249">
         <f>1/11</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="G45" s="204">
+      <c r="G45" s="207">
         <f>3/13</f>
         <v>0.230769230769231</v>
       </c>
-      <c r="H45" s="200">
+      <c r="H45" s="203">
         <f>5/28</f>
         <v>0.178571428571429</v>
       </c>
-      <c r="I45" s="200"/>
-      <c r="J45" s="204">
+      <c r="I45" s="203"/>
+      <c r="J45" s="207">
         <f>(4+3)/(36+38)</f>
         <v>0.0945945945945946</v>
       </c>
-      <c r="K45" s="200">
+      <c r="K45" s="203">
         <f>27/126</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="L45" s="246">
+      <c r="L45" s="249">
         <f>6/56</f>
         <v>0.107142857142857</v>
       </c>
-      <c r="M45" s="204">
+      <c r="M45" s="207">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="N45" s="200">
+      <c r="N45" s="203">
         <f>3/30</f>
         <v>0.1</v>
       </c>
-      <c r="O45" s="299">
+      <c r="O45" s="302">
         <f>2/13</f>
         <v>0.153846153846154</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154" t="s">
+      <c r="A46" s="156"/>
+      <c r="B46" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="199">
+      <c r="C46" s="202">
         <f>0/17</f>
         <v>0</v>
       </c>
-      <c r="D46" s="201"/>
-      <c r="E46" s="250">
+      <c r="D46" s="204"/>
+      <c r="E46" s="253">
         <f>0/17</f>
         <v>0</v>
       </c>
-      <c r="F46" s="246">
+      <c r="F46" s="249">
         <f>0/20</f>
         <v>0</v>
       </c>
-      <c r="G46" s="204">
+      <c r="G46" s="207">
         <f>0/20</f>
         <v>0</v>
       </c>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200">
+      <c r="H46" s="203"/>
+      <c r="I46" s="203">
         <f>1/34</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="J46" s="202">
+      <c r="J46" s="205">
         <f>(4+7)/(47+48)</f>
         <v>0.115789473684211</v>
       </c>
-      <c r="K46" s="203">
+      <c r="K46" s="206">
         <f>5/58</f>
         <v>0.0862068965517241</v>
       </c>
-      <c r="L46" s="247">
+      <c r="L46" s="250">
         <f>14/281</f>
         <v>0.0498220640569395</v>
       </c>
-      <c r="M46" s="204"/>
-      <c r="N46" s="200">
+      <c r="M46" s="207"/>
+      <c r="N46" s="203">
         <f>1/28</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="O46" s="299">
+      <c r="O46" s="302">
         <f>0/47</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" ht="13.35" spans="1:15">
-      <c r="A47" s="165" t="s">
+      <c r="A47" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="154" t="s">
+      <c r="B47" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="205"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="205"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="251"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="200">
+      <c r="C47" s="208"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="210"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="203"/>
+      <c r="K47" s="203">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="L47" s="200"/>
-      <c r="M47" s="205"/>
-      <c r="N47" s="206">
+      <c r="L47" s="203"/>
+      <c r="M47" s="208"/>
+      <c r="N47" s="209">
         <f>16/69</f>
         <v>0.231884057971014</v>
       </c>
-      <c r="O47" s="300">
+      <c r="O47" s="303">
         <f>3/68</f>
         <v>0.0441176470588235</v>
       </c>
     </row>
     <row r="48" ht="13.35" spans="1:15">
-      <c r="A48" s="165"/>
-      <c r="B48" s="154" t="s">
+      <c r="A48" s="168"/>
+      <c r="B48" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="199">
+      <c r="C48" s="202">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="D48" s="201"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="252"/>
-      <c r="G48" s="199"/>
-      <c r="H48" s="201"/>
-      <c r="I48" s="252"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200">
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="255"/>
+      <c r="G48" s="202"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="255"/>
+      <c r="J48" s="203"/>
+      <c r="K48" s="203">
         <f>3/31</f>
         <v>0.0967741935483871</v>
       </c>
-      <c r="L48" s="200">
+      <c r="L48" s="203">
         <f>3/29</f>
         <v>0.103448275862069</v>
       </c>
-      <c r="M48" s="204">
+      <c r="M48" s="207">
         <f>11/76</f>
         <v>0.144736842105263</v>
       </c>
-      <c r="N48" s="200">
+      <c r="N48" s="203">
         <f>41/118</f>
         <v>0.347457627118644</v>
       </c>
-      <c r="O48" s="299">
+      <c r="O48" s="302">
         <f>10/81</f>
         <v>0.123456790123457</v>
       </c>
     </row>
     <row r="49" ht="13.35" spans="1:15">
-      <c r="A49" s="165"/>
-      <c r="B49" s="167" t="s">
+      <c r="A49" s="168"/>
+      <c r="B49" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="208"/>
-      <c r="D49" s="209"/>
-      <c r="E49" s="209">
+      <c r="C49" s="211"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212">
         <f>0/10</f>
         <v>0</v>
       </c>
-      <c r="F49" s="253"/>
-      <c r="G49" s="208"/>
-      <c r="H49" s="209"/>
-      <c r="I49" s="253"/>
-      <c r="J49" s="269"/>
-      <c r="K49" s="269">
+      <c r="F49" s="256"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="272"/>
+      <c r="K49" s="272">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="L49" s="269">
+      <c r="L49" s="272">
         <f>2/49</f>
         <v>0.0408163265306122</v>
       </c>
-      <c r="M49" s="301">
+      <c r="M49" s="304">
         <f>10/77</f>
         <v>0.12987012987013</v>
       </c>
-      <c r="N49" s="269">
+      <c r="N49" s="272">
         <f>1/82</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="O49" s="302">
+      <c r="O49" s="305">
         <f>11/242</f>
         <v>0.0454545454545455</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="170"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="195"/>
-      <c r="H50" s="195"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="292"/>
-      <c r="N50" s="292"/>
-      <c r="O50" s="292"/>
+      <c r="A50" s="173"/>
+      <c r="B50" s="173"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="295"/>
+      <c r="O50" s="295"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="144" t="s">
+      <c r="A51" s="147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="213" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="210" t="s">
+      <c r="A53" s="213" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="210" t="s">
+      <c r="A54" s="213" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="210" t="s">
+      <c r="A55" s="213" t="s">
         <v>136</v>
       </c>
     </row>
@@ -68098,918 +68104,918 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="12.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.2962962962963" style="131" customWidth="1"/>
-    <col min="2" max="2" width="16.8888888888889" style="131" customWidth="1"/>
-    <col min="3" max="3" width="7" style="131" customWidth="1"/>
-    <col min="4" max="4" width="6.11111111111111" style="131" customWidth="1"/>
-    <col min="5" max="5" width="7.44444444444444" style="131" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" style="131" customWidth="1"/>
-    <col min="7" max="7" width="7.88888888888889" style="131" customWidth="1"/>
-    <col min="8" max="16384" width="8.89814814814815" style="131"/>
+    <col min="1" max="1" width="30.2962962962963" style="134" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" style="134" customWidth="1"/>
+    <col min="3" max="3" width="7" style="134" customWidth="1"/>
+    <col min="4" max="4" width="6.11111111111111" style="134" customWidth="1"/>
+    <col min="5" max="5" width="7.44444444444444" style="134" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="134" customWidth="1"/>
+    <col min="7" max="7" width="7.88888888888889" style="134" customWidth="1"/>
+    <col min="8" max="16384" width="8.89814814814815" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="134" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="133">
+      <c r="C2" s="136">
         <v>39</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="137">
         <v>39</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132" t="s">
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="135"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="132"/>
-      <c r="B4" s="135" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="138">
         <v>157</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C5" s="135">
         <v>104</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
     </row>
     <row r="7" ht="50.4" spans="1:7">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="137">
+      <c r="C7" s="140">
         <v>48</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="140">
         <f t="shared" ref="D7:D18" si="0">1000*E7/C7</f>
         <v>245.833333333333</v>
       </c>
-      <c r="E7" s="137">
+      <c r="E7" s="140">
         <v>11.8</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="140">
         <v>-63.5</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="140">
         <v>-44.8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="137">
+      <c r="C8" s="140">
         <v>27.1</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="140">
         <f t="shared" si="0"/>
         <v>612.546125461255</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="140">
         <v>16.6</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="140">
         <v>-59</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="140">
         <v>-50.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="132"/>
-      <c r="B9" s="137" t="s">
+      <c r="A9" s="135"/>
+      <c r="B9" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="137">
+      <c r="C9" s="140">
         <v>45.7</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="140">
         <f t="shared" si="0"/>
         <v>229.759299781182</v>
       </c>
-      <c r="E9" s="137">
+      <c r="E9" s="140">
         <v>10.5</v>
       </c>
-      <c r="F9" s="137">
+      <c r="F9" s="140">
         <v>-67.4</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="140">
         <v>-41.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="132"/>
-      <c r="B10" s="138" t="s">
+      <c r="A10" s="135"/>
+      <c r="B10" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="141">
         <v>49.4</v>
       </c>
-      <c r="D10" s="138">
+      <c r="D10" s="141">
         <f t="shared" si="0"/>
         <v>80.9716599190283</v>
       </c>
-      <c r="E10" s="138">
+      <c r="E10" s="141">
         <v>4</v>
       </c>
-      <c r="F10" s="138">
+      <c r="F10" s="141">
         <v>-67.1</v>
       </c>
-      <c r="G10" s="138">
+      <c r="G10" s="141">
         <v>-42.3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="132"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="135"/>
+      <c r="B11" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="141">
         <v>33</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="141">
         <f t="shared" si="0"/>
         <v>93.9393939393939</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="141">
         <v>3.1</v>
       </c>
-      <c r="F11" s="138">
+      <c r="F11" s="141">
         <v>-66.4</v>
       </c>
-      <c r="G11" s="138">
+      <c r="G11" s="141">
         <v>-41.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="132"/>
-      <c r="B12" s="139" t="s">
+      <c r="A12" s="135"/>
+      <c r="B12" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="142">
         <v>79.7</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="142">
         <f t="shared" si="0"/>
         <v>146.800501882058</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="142">
         <v>11.7</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="142">
         <v>-63.2</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="142">
         <v>-48.1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="132"/>
-      <c r="B13" s="139" t="s">
+      <c r="A13" s="135"/>
+      <c r="B13" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="142">
         <v>95.7</v>
       </c>
-      <c r="D13" s="139">
+      <c r="D13" s="142">
         <f t="shared" si="0"/>
         <v>123.301985370951</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="142">
         <v>11.8</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="142">
         <v>-59.9</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="142">
         <v>-41.8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
-      <c r="B14" s="140" t="s">
+      <c r="A14" s="135"/>
+      <c r="B14" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="143">
         <v>126</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="143">
         <f t="shared" si="0"/>
         <v>86.5079365079365</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="143">
         <v>10.9</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="143">
         <v>-65.7</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="143">
         <v>-43.7</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="136">
         <f>AVERAGE(C7:C9)</f>
         <v>40.2666666666667</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="136">
         <f t="shared" si="0"/>
         <v>322.019867549669</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="136">
         <f>AVERAGE(E7:E9)</f>
         <v>12.9666666666667</v>
       </c>
-      <c r="F15" s="133">
+      <c r="F15" s="136">
         <f>AVERAGE(F7:F9)</f>
         <v>-63.3</v>
       </c>
-      <c r="G15" s="133">
+      <c r="G15" s="136">
         <f>AVERAGE(G7:G9)</f>
         <v>-45.6</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="137">
         <f>AVERAGE(C10:C11)</f>
         <v>41.2</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="137">
         <f t="shared" si="0"/>
         <v>86.1650485436893</v>
       </c>
-      <c r="E16" s="134">
+      <c r="E16" s="137">
         <f>AVERAGE(E10:E11)</f>
         <v>3.55</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="137">
         <f>AVERAGE(F10:F11)</f>
         <v>-66.75</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="137">
         <f>AVERAGE(G10:G11)</f>
         <v>-41.95</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="135">
+      <c r="C17" s="138">
         <f>AVERAGE(C12:C13)</f>
         <v>87.7</v>
       </c>
-      <c r="D17" s="135">
+      <c r="D17" s="138">
         <f t="shared" si="0"/>
         <v>133.979475484607</v>
       </c>
-      <c r="E17" s="135">
+      <c r="E17" s="138">
         <f>AVERAGE(E12:E13)</f>
         <v>11.75</v>
       </c>
-      <c r="F17" s="135">
+      <c r="F17" s="138">
         <f>AVERAGE(F12:F13)</f>
         <v>-61.55</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="138">
         <f>AVERAGE(G12:G13)</f>
         <v>-44.95</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="144">
         <f>C14</f>
         <v>126</v>
       </c>
-      <c r="D18" s="141">
+      <c r="D18" s="144">
         <f t="shared" si="0"/>
         <v>86.5079365079365</v>
       </c>
-      <c r="E18" s="141">
+      <c r="E18" s="144">
         <f>E14</f>
         <v>10.9</v>
       </c>
-      <c r="F18" s="141">
+      <c r="F18" s="144">
         <f>F14</f>
         <v>-65.7</v>
       </c>
-      <c r="G18" s="141">
+      <c r="G18" s="144">
         <f>G14</f>
         <v>-43.7</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:8">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="139">
+      <c r="C20" s="142">
         <v>132</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="134">
         <v>-64.6</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="134">
         <v>-43.1</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="134" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C21" s="142">
         <v>122</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="134">
         <v>-64.9</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="134">
         <v>-41.2</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="139">
+      <c r="C22" s="142">
         <v>251</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="134">
         <v>-59.5</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="134">
         <v>-42.3</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="139">
+      <c r="C23" s="142">
         <v>265</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="134">
         <v>-59.6</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="134">
         <v>-43</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="140"/>
+      <c r="C24" s="143"/>
     </row>
     <row r="25" ht="26.5" customHeight="1" spans="1:8">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="139">
+      <c r="C25" s="142">
         <v>70.48</v>
       </c>
-      <c r="E25" s="131">
+      <c r="E25" s="134">
         <v>8.1</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="134">
         <v>-61.76</v>
       </c>
-      <c r="G25" s="131">
+      <c r="G25" s="134">
         <v>-39</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="134" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="146">
         <v>226.15</v>
       </c>
-      <c r="E26" s="131">
+      <c r="E26" s="134">
         <v>13.51</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="134">
         <v>-71.43</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="134">
         <v>-43.65</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="131">
+      <c r="C27" s="134">
         <v>151.28</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="134">
         <v>12.55</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="134">
         <v>-67.64</v>
       </c>
-      <c r="G27" s="131">
+      <c r="G27" s="134">
         <v>-33.93</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="140">
         <v>238</v>
       </c>
-      <c r="E29" s="131" t="s">
+      <c r="E29" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="131">
+      <c r="F29" s="134">
         <v>-75</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="134">
         <v>-51.5</v>
       </c>
-      <c r="H29" s="131" t="s">
+      <c r="H29" s="134" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="131">
+      <c r="C30" s="134">
         <v>84</v>
       </c>
-      <c r="E30" s="131" t="s">
+      <c r="E30" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="134">
         <v>-70</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="134">
         <v>-41.6</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:8">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="131">
+      <c r="C32" s="134">
         <v>407</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="134">
         <v>-68.8</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="134">
         <v>-39</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="134" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="138">
+      <c r="C33" s="141">
         <v>474</v>
       </c>
-      <c r="F33" s="131">
+      <c r="F33" s="134">
         <v>-72.2</v>
       </c>
-      <c r="G33" s="131">
+      <c r="G33" s="134">
         <v>-36.6</v>
       </c>
     </row>
     <row r="35" ht="37.5" customHeight="1" spans="1:8">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="138">
+      <c r="C35" s="141">
         <v>70.6</v>
       </c>
-      <c r="E35" s="131">
+      <c r="E35" s="134">
         <v>2.8</v>
       </c>
-      <c r="H35" s="131" t="s">
+      <c r="H35" s="134" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="137">
+      <c r="C37" s="140">
         <v>133</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="134">
         <v>17</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="134">
         <v>-66</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="138">
+      <c r="C38" s="141">
         <v>55</v>
       </c>
-      <c r="E38" s="131">
+      <c r="E38" s="134">
         <v>8.8</v>
       </c>
-      <c r="F38" s="131">
+      <c r="F38" s="134">
         <v>-64</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="142" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="139">
+      <c r="C39" s="142">
         <v>82</v>
       </c>
-      <c r="E39" s="131">
+      <c r="E39" s="134">
         <v>16.4</v>
       </c>
-      <c r="F39" s="131">
+      <c r="F39" s="134">
         <v>-59</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="131" t="s">
+      <c r="A42" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="G42" s="131" t="s">
+      <c r="C42" s="140"/>
+      <c r="G42" s="134" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="G43" s="131" t="s">
+      <c r="C43" s="140"/>
+      <c r="G43" s="134" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="137"/>
-      <c r="G44" s="131" t="s">
+      <c r="C44" s="140"/>
+      <c r="G44" s="134" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="G45" s="131" t="s">
+      <c r="C45" s="140"/>
+      <c r="G45" s="134" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="139" t="s">
+      <c r="B48" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="139">
+      <c r="C48" s="142">
         <v>195.3</v>
       </c>
-      <c r="F48" s="131">
+      <c r="F48" s="134">
         <v>-63.6</v>
       </c>
-      <c r="G48" s="131">
+      <c r="G48" s="134">
         <v>-45.2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="139">
+      <c r="C49" s="142">
         <v>282.3</v>
       </c>
-      <c r="F49" s="131">
+      <c r="F49" s="134">
         <v>-63.3</v>
       </c>
-      <c r="G49" s="131">
+      <c r="G49" s="134">
         <v>-52.7</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="139">
+      <c r="C50" s="142">
         <v>83.2</v>
       </c>
-      <c r="F50" s="131">
+      <c r="F50" s="134">
         <v>-63.9</v>
       </c>
-      <c r="G50" s="131">
+      <c r="G50" s="134">
         <v>-46.3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="131" t="s">
+      <c r="A53" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="139">
+      <c r="C53" s="142">
         <v>126.1</v>
       </c>
-      <c r="E53" s="131">
+      <c r="E53" s="134">
         <v>9.1</v>
       </c>
-      <c r="F53" s="131">
+      <c r="F53" s="134">
         <v>-66.3</v>
       </c>
-      <c r="G53" s="131">
+      <c r="G53" s="134">
         <v>-42.2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="131" t="s">
+      <c r="A54" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="139" t="s">
+      <c r="B54" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="139">
+      <c r="C54" s="142">
         <v>141.8</v>
       </c>
-      <c r="E54" s="131">
+      <c r="E54" s="134">
         <v>9.1</v>
       </c>
-      <c r="F54" s="131">
+      <c r="F54" s="134">
         <v>-66.6</v>
       </c>
-      <c r="G54" s="131">
+      <c r="G54" s="134">
         <v>-48.2</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="138">
+      <c r="C55" s="141">
         <v>84.5</v>
       </c>
-      <c r="E55" s="131">
+      <c r="E55" s="134">
         <v>3.9</v>
       </c>
-      <c r="F55" s="131">
+      <c r="F55" s="134">
         <v>-68.1</v>
       </c>
-      <c r="G55" s="131">
+      <c r="G55" s="134">
         <v>-44.1</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="138">
+      <c r="C56" s="141">
         <v>95.8</v>
       </c>
-      <c r="E56" s="131">
+      <c r="E56" s="134">
         <v>4.9</v>
       </c>
-      <c r="F56" s="131">
+      <c r="F56" s="134">
         <v>-68</v>
       </c>
-      <c r="G56" s="131">
+      <c r="G56" s="134">
         <v>-47.1</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="131" t="s">
+      <c r="B57" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="131">
+      <c r="C57" s="134">
         <v>131.6</v>
       </c>
-      <c r="E57" s="131">
+      <c r="E57" s="134">
         <v>5.8</v>
       </c>
-      <c r="F57" s="131">
+      <c r="F57" s="134">
         <v>-66.5</v>
       </c>
-      <c r="G57" s="131">
+      <c r="G57" s="134">
         <v>-44.2</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="131">
+      <c r="C58" s="134">
         <v>131.2</v>
       </c>
-      <c r="E58" s="131">
+      <c r="E58" s="134">
         <v>4.2</v>
       </c>
-      <c r="F58" s="131">
+      <c r="F58" s="134">
         <v>-77.4</v>
       </c>
-      <c r="G58" s="131">
+      <c r="G58" s="134">
         <v>-46.4</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="131">
+      <c r="C59" s="134">
         <v>76.7</v>
       </c>
-      <c r="E59" s="131">
+      <c r="E59" s="134">
         <v>4.6</v>
       </c>
-      <c r="F59" s="131">
+      <c r="F59" s="134">
         <v>-67.6</v>
       </c>
-      <c r="G59" s="131">
+      <c r="G59" s="134">
         <v>-41.9</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="131" t="s">
+      <c r="D61" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="131" t="s">
+      <c r="F61" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="131" t="s">
+      <c r="G61" s="134" t="s">
         <v>142</v>
       </c>
     </row>
@@ -69025,13 +69031,14 @@
   <sheetPr/>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="18" width="8.97222222222222" style="26" customWidth="1"/>
+    <col min="1" max="1" width="11.1851851851852" style="26" customWidth="1"/>
+    <col min="2" max="18" width="8.97222222222222" style="26" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="26" customWidth="1"/>
     <col min="20" max="1025" width="8.5" style="26" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="26"/>
@@ -69231,7 +69238,7 @@
       <c r="D19" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="121"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
@@ -69246,7 +69253,7 @@
       <c r="D20" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="121"/>
+      <c r="E20" s="122"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
@@ -69261,7 +69268,7 @@
       <c r="D21" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="121"/>
+      <c r="E21" s="122"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:6">
       <c r="A22" s="26" t="s">
@@ -69276,7 +69283,7 @@
       <c r="D22" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="122"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:1">
@@ -69291,7 +69298,7 @@
       <c r="C24" s="107">
         <v>0.31</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="115" t="s">
@@ -69300,7 +69307,7 @@
       <c r="C25" s="107">
         <v>1.93</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="115" t="s">
@@ -69309,7 +69316,7 @@
       <c r="C26" s="107">
         <v>1.62</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="122"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="115" t="s">
@@ -69318,7 +69325,7 @@
       <c r="C27" s="107">
         <v>4.12</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="122"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="115" t="s">
@@ -69327,7 +69334,7 @@
       <c r="C28" s="107">
         <v>0.52</v>
       </c>
-      <c r="E28" s="121"/>
+      <c r="E28" s="122"/>
     </row>
     <row r="30" customFormat="1"/>
     <row r="31" customFormat="1"/>
@@ -69344,145 +69351,146 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="26" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="118"/>
+      <c r="B35" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="118">
+      <c r="B36" s="119">
         <f>(SUMPRODUCT(B50:C51,B66:C67)/SUM(B66:C67))</f>
         <v>0.700092592592593</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="119">
         <f>(SUMPRODUCT(D50:D51,D66:D67)/SUM(D66:D67))</f>
         <v>0.78</v>
       </c>
-      <c r="D36" s="118">
+      <c r="D36" s="119">
         <f>(SUMPRODUCT(E50:F51,E66:F67)/SUM(E66:F67))</f>
         <v>0.467333333333333</v>
       </c>
-      <c r="E36" s="119">
+      <c r="E36" s="120">
         <f>AVERAGE(E38:E39)</f>
         <v>0.378333333333334</v>
       </c>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="118">
+      <c r="B37" s="119">
         <f t="shared" ref="B37:B39" si="0">SUMPRODUCT(B52:C52,B68:C68)/SUM(B68:C68)</f>
         <v>0.343333333333333</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="119">
         <f>D52</f>
         <v>0.95</v>
       </c>
-      <c r="D37" s="118">
+      <c r="D37" s="119">
         <f>SUMPRODUCT(E52:F52,E68:F68)/SUM(E68:F68)</f>
         <v>0.376666666666667</v>
       </c>
-      <c r="E37" s="119">
+      <c r="E37" s="120">
         <f>AVERAGE(E38:E39)</f>
         <v>0.378333333333334</v>
       </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="118">
+      <c r="B38" s="119">
         <f>SUMPRODUCT(B53:C54,B69:C70)/SUM(B69:C70)</f>
         <v>0.700555555555555</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="119">
         <f>SUMPRODUCT(D53:D54,D69:D70)/SUM(D69:D70)</f>
         <v>0.626976744186047</v>
       </c>
-      <c r="D38" s="118">
+      <c r="D38" s="119">
         <f>(SUMPRODUCT(E53:F54,E69:F70)/SUM(E69:F70))</f>
         <v>0.676255319148936</v>
       </c>
-      <c r="E38" s="118">
+      <c r="E38" s="119">
         <f>(SUMPRODUCT(G53:G54,G69:G70)/SUM(G69:G70))</f>
         <v>0.226666666666667</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="119">
+      <c r="B39" s="120">
         <f>AVERAGE(B36:B38)</f>
         <v>0.581327160493827</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="119">
         <f>D55</f>
         <v>2.27</v>
       </c>
-      <c r="D39" s="118">
+      <c r="D39" s="119">
         <f>(SUMPRODUCT(E55:F55,E71:F71)/SUM(E71:F71))</f>
         <v>0.4025</v>
       </c>
-      <c r="E39" s="118">
+      <c r="E39" s="119">
         <f>G55</f>
         <v>0.53</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="124">
         <f>AVERAGE(B36:D38,E38,C39:E39)</f>
         <v>0.69618309319101</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="L40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
@@ -69491,7 +69499,7 @@
       <c r="G41" s="117" t="s">
         <v>265</v>
       </c>
-      <c r="L41" s="118"/>
+      <c r="L41" s="124"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="26" t="s">
@@ -69518,137 +69526,137 @@
       <c r="J42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="118"/>
+      <c r="L42" s="124"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="120">
+      <c r="B43" s="121">
         <f>SQRT(SUMPRODUCT(B58:C59,B74:C75)/SUM(B74:C75))</f>
         <v>0.627113784024245</v>
       </c>
-      <c r="C43" s="120">
+      <c r="C43" s="121">
         <f>SQRT(SUMPRODUCT(D58:D59,D74:D75)/SUM(D74:D75))</f>
         <v>0.965012953280939</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D43" s="121">
         <f>SQRT((E58*E74+F59*F75)/(E74+F75))</f>
         <v>0.354288018425687</v>
       </c>
-      <c r="E43" s="120">
+      <c r="E43" s="121">
         <v>0</v>
       </c>
-      <c r="G43" s="118">
+      <c r="G43" s="124">
         <f>B43/B36</f>
         <v>0.895758347766412</v>
       </c>
-      <c r="H43" s="118">
+      <c r="H43" s="124">
         <f>C43/C36</f>
         <v>1.23719609394992</v>
       </c>
-      <c r="I43" s="118">
+      <c r="I43" s="124">
         <f>D43/D36</f>
         <v>0.758105602908033</v>
       </c>
-      <c r="J43" s="119">
+      <c r="J43" s="125">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L43" s="118"/>
+      <c r="L43" s="124"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="120">
+      <c r="B44" s="121">
         <f>SQRT(C60)</f>
         <v>0.18</v>
       </c>
-      <c r="C44" s="120">
+      <c r="C44" s="121">
         <f>SQRT(D60)</f>
         <v>1.27499019604074</v>
       </c>
-      <c r="D44" s="120">
+      <c r="D44" s="121">
         <v>0</v>
       </c>
-      <c r="E44" s="120">
+      <c r="E44" s="121">
         <v>0</v>
       </c>
-      <c r="G44" s="118">
+      <c r="G44" s="124">
         <f>B44/B37</f>
         <v>0.524271844660195</v>
       </c>
-      <c r="H44" s="118">
+      <c r="H44" s="124">
         <f>C44/C37</f>
         <v>1.34209494320078</v>
       </c>
-      <c r="I44" s="119">
+      <c r="I44" s="125">
         <f>AVERAGE(I43,I45,I46)</f>
         <v>0.956619127770429</v>
       </c>
-      <c r="J44" s="119">
+      <c r="J44" s="125">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L44" s="118"/>
+      <c r="L44" s="124"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="120">
+      <c r="B45" s="121">
         <f>SQRT(SUMPRODUCT(B61:C62,B77:C78)/SUM(B77:C78))</f>
         <v>0.736955900987298</v>
       </c>
-      <c r="C45" s="120">
+      <c r="C45" s="121">
         <f>SQRT(SUMPRODUCT(D61:D62,D77:D78)/SUM(D77:D78))</f>
         <v>0.603045118240871</v>
       </c>
-      <c r="D45" s="120">
+      <c r="D45" s="121">
         <f>(SUMPRODUCT(E61:F62,E77:F78)/SUM(E77:F78))</f>
         <v>0.837114285714286</v>
       </c>
-      <c r="E45" s="120">
+      <c r="E45" s="121">
         <v>0</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G45" s="118">
+      <c r="G45" s="124">
         <f>B45/B38</f>
         <v>1.05195925596918</v>
       </c>
-      <c r="H45" s="118">
+      <c r="H45" s="124">
         <f>C45/C38</f>
         <v>0.961830121823347</v>
       </c>
-      <c r="I45" s="118">
+      <c r="I45" s="124">
         <f>D45/D38</f>
         <v>1.23786721081587</v>
       </c>
-      <c r="J45" s="119">
+      <c r="J45" s="125">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L45" s="118"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="120">
+      <c r="B46" s="121">
         <v>0</v>
       </c>
-      <c r="C46" s="120">
+      <c r="C46" s="121">
         <f>SQRT(D63)</f>
         <v>2.97912738901847</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="121">
         <f>SQRT(SUMPRODUCT(E63:F63,E79:F79)/SUM(E79:F79))</f>
         <v>0.351738539258922</v>
       </c>
-      <c r="E46" s="120">
+      <c r="E46" s="121">
         <f>SQRT(G63)</f>
         <v>0.735866835779409</v>
       </c>
@@ -69656,36 +69664,36 @@
         <f>AVERAGEIF(B43:E46,"&gt;0")</f>
         <v>0.876841183706443</v>
       </c>
-      <c r="G46" s="119">
+      <c r="G46" s="125">
         <f>AVERAGE(G43:G45)</f>
         <v>0.823996482798596</v>
       </c>
-      <c r="H46" s="118">
+      <c r="H46" s="124">
         <f>C46/C39</f>
         <v>1.31239092027245</v>
       </c>
-      <c r="I46" s="118">
+      <c r="I46" s="124">
         <f>D46/D39</f>
         <v>0.873884569587384</v>
       </c>
-      <c r="J46" s="118">
+      <c r="J46" s="124">
         <f>E46/E39</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L46" s="118"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="L47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="L47" s="124"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="L48" s="118"/>
+      <c r="L48" s="124"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
@@ -70161,19 +70169,19 @@
       <c r="A65" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="127" t="s">
         <v>269</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="123" t="s">
+      <c r="E65" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="F65" s="124" t="s">
+      <c r="F65" s="127" t="s">
         <v>271</v>
       </c>
       <c r="G65" s="26" t="s">
@@ -70181,48 +70189,48 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="123" t="s">
+      <c r="A66" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="123">
+      <c r="B66" s="126">
         <v>88</v>
       </c>
-      <c r="C66" s="124">
+      <c r="C66" s="127">
         <v>22</v>
       </c>
-      <c r="D66" s="125">
+      <c r="D66" s="128">
         <v>25</v>
       </c>
-      <c r="E66" s="123">
+      <c r="E66" s="126">
         <v>9</v>
       </c>
-      <c r="F66" s="124">
+      <c r="F66" s="127">
         <v>1</v>
       </c>
-      <c r="G66" s="124">
+      <c r="G66" s="127">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.35" spans="1:7">
-      <c r="A67" s="126" t="s">
+      <c r="A67" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="126">
+      <c r="B67" s="129">
         <v>10</v>
       </c>
-      <c r="C67" s="127">
+      <c r="C67" s="130">
         <v>96</v>
       </c>
-      <c r="D67" s="128">
+      <c r="D67" s="131">
         <v>25</v>
       </c>
-      <c r="E67" s="126">
+      <c r="E67" s="129">
         <v>2</v>
       </c>
-      <c r="F67" s="127">
+      <c r="F67" s="130">
         <v>3</v>
       </c>
-      <c r="G67" s="127">
+      <c r="G67" s="130">
         <v>0</v>
       </c>
     </row>
@@ -70230,19 +70238,19 @@
       <c r="A68" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="129">
+      <c r="B68" s="132">
         <v>2</v>
       </c>
-      <c r="C68" s="130">
+      <c r="C68" s="133">
         <v>4</v>
       </c>
       <c r="D68" s="26">
         <v>254</v>
       </c>
-      <c r="E68" s="129">
+      <c r="E68" s="132">
         <v>2</v>
       </c>
-      <c r="F68" s="130">
+      <c r="F68" s="133">
         <v>1</v>
       </c>
       <c r="G68" s="26">
@@ -70250,48 +70258,48 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="123" t="s">
+      <c r="A69" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="123">
+      <c r="B69" s="126">
         <v>20</v>
       </c>
-      <c r="C69" s="124">
+      <c r="C69" s="127">
         <v>5</v>
       </c>
-      <c r="D69" s="125">
+      <c r="D69" s="128">
         <v>32</v>
       </c>
-      <c r="E69" s="123">
+      <c r="E69" s="126">
         <v>178</v>
       </c>
-      <c r="F69" s="124">
+      <c r="F69" s="127">
         <v>3</v>
       </c>
-      <c r="G69" s="124">
+      <c r="G69" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.35" spans="1:7">
-      <c r="A70" s="126" t="s">
+      <c r="A70" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="126">
+      <c r="B70" s="129">
         <v>9</v>
       </c>
-      <c r="C70" s="127">
+      <c r="C70" s="130">
         <v>20</v>
       </c>
-      <c r="D70" s="128">
+      <c r="D70" s="131">
         <v>11</v>
       </c>
-      <c r="E70" s="126">
+      <c r="E70" s="129">
         <v>14</v>
       </c>
-      <c r="F70" s="127">
+      <c r="F70" s="130">
         <v>40</v>
       </c>
-      <c r="G70" s="127">
+      <c r="G70" s="130">
         <v>2</v>
       </c>
     </row>
@@ -70299,19 +70307,19 @@
       <c r="A71" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="126">
+      <c r="B71" s="129">
         <v>0</v>
       </c>
-      <c r="C71" s="127">
+      <c r="C71" s="130">
         <v>0</v>
       </c>
       <c r="D71" s="26">
         <v>3</v>
       </c>
-      <c r="E71" s="126">
+      <c r="E71" s="129">
         <v>5</v>
       </c>
-      <c r="F71" s="127">
+      <c r="F71" s="130">
         <v>7</v>
       </c>
       <c r="G71" s="26">
@@ -70529,7 +70537,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -70597,7 +70605,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" ht="88.2" spans="1:7">
+    <row r="4" ht="88.2" spans="1:8">
       <c r="A4" s="100" t="s">
         <v>290</v>
       </c>
@@ -70609,42 +70617,45 @@
       </c>
       <c r="G4" s="98" t="s">
         <v>292</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" ht="63" spans="1:7">
       <c r="A5" s="97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5" s="98">
         <v>35</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="50.4" spans="1:7">
       <c r="A6" s="97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" ht="50.4" spans="1:7">
       <c r="A7" s="97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" s="98">
         <v>4.6</v>
@@ -70653,101 +70664,101 @@
         <v>2.5</v>
       </c>
       <c r="G7" s="98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" ht="37.8" spans="1:7">
       <c r="A8" s="97" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" ht="50.4" spans="1:7">
       <c r="A9" s="97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G9" s="98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="50.4" spans="1:9">
       <c r="A10" s="97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H10" s="97"/>
       <c r="I10" s="96"/>
     </row>
     <row r="11" ht="50.4" spans="1:7">
       <c r="A11" s="100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" s="98">
         <v>32</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" ht="50.4" spans="1:7">
       <c r="A12" s="97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" ht="50.4" spans="1:7">
       <c r="A13" s="97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:7">
       <c r="A14" s="101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B14" s="102">
         <v>32</v>
@@ -70756,10 +70767,10 @@
       <c r="D14" s="102"/>
       <c r="E14" s="102"/>
       <c r="F14" s="104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G14" s="105" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="3:3">
@@ -70815,15 +70826,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="86" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -70838,27 +70849,27 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="88" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="85" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:5">
       <c r="A20" s="86"/>
       <c r="B20" s="86" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -70947,32 +70958,32 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="88" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="90"/>
       <c r="B38" s="86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E38" s="86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="87">
         <f>(0.2*29+0.46*45)/(29+45)</f>
@@ -70992,7 +71003,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" s="87">
         <v>1</v>
@@ -71011,7 +71022,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" s="87">
         <f>(0.14*39+0.17*44)/(39+44)</f>
@@ -71031,7 +71042,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B42" s="87">
         <v>0.39</v>
@@ -71070,7 +71081,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="87">
         <v>1.15</v>
@@ -71109,7 +71120,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" s="87">
         <f>0.17</f>
@@ -71129,22 +71140,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="86"/>
       <c r="B64" s="86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D64" s="92"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B65" s="87">
         <v>0.155606920284682</v>
@@ -71154,7 +71165,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B66" s="87">
         <v>1</v>
@@ -71163,12 +71174,12 @@
         <v>0.4</v>
       </c>
       <c r="D66" s="94" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B67" s="87">
         <v>0.685390101471989</v>
@@ -71181,7 +71192,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B68" s="87">
         <v>0.506337792794211</v>
@@ -71194,7 +71205,7 @@
     </row>
     <row r="69" ht="12.6" spans="1:1">
       <c r="A69" s="95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -71230,49 +71241,49 @@
         <v>69</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>119</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J1" s="75" t="s">
         <v>119</v>
       </c>
       <c r="K1" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L1" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N1" s="75" t="s">
         <v>119</v>
       </c>
       <c r="O1" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" s="74" customFormat="1" spans="1:17">
@@ -71334,7 +71345,7 @@
     </row>
     <row r="3" s="74" customFormat="1" spans="1:17">
       <c r="A3" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" s="78">
         <f>17/49</f>
@@ -71375,7 +71386,7 @@
     </row>
     <row r="4" s="74" customFormat="1" spans="1:17">
       <c r="A4" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B4" s="78">
         <f>11/53</f>
@@ -71413,7 +71424,7 @@
     </row>
     <row r="5" s="74" customFormat="1" spans="1:17">
       <c r="A5" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B5" s="79">
         <f>1/48</f>
@@ -71521,7 +71532,7 @@
     </row>
     <row r="7" s="74" customFormat="1" spans="1:17">
       <c r="A7" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B7" s="78">
         <f>7/16</f>
@@ -71565,7 +71576,7 @@
     </row>
     <row r="8" s="74" customFormat="1" spans="1:17">
       <c r="A8" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B8" s="78">
         <f>3/11</f>
@@ -71605,7 +71616,7 @@
     </row>
     <row r="9" s="74" customFormat="1" spans="1:17">
       <c r="A9" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
@@ -71701,7 +71712,7 @@
     </row>
     <row r="11" s="74" customFormat="1" spans="1:17">
       <c r="A11" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="74">
@@ -71756,7 +71767,7 @@
     </row>
     <row r="12" s="74" customFormat="1" spans="1:17">
       <c r="A12" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B12" s="78">
         <f>1/15</f>
@@ -71813,7 +71824,7 @@
     </row>
     <row r="13" s="74" customFormat="1" spans="1:17">
       <c r="A13" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="80"/>
@@ -71906,7 +71917,7 @@
     </row>
     <row r="15" s="74" customFormat="1" spans="1:17">
       <c r="A15" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B15" s="78">
         <f>0/12</f>
@@ -71944,7 +71955,7 @@
     </row>
     <row r="16" s="74" customFormat="1" spans="1:17">
       <c r="A16" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B16" s="78"/>
       <c r="E16" s="82"/>
@@ -71982,7 +71993,7 @@
     </row>
     <row r="17" s="74" customFormat="1" spans="1:17">
       <c r="A17" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
@@ -72070,7 +72081,7 @@
     </row>
     <row r="22" s="74" customFormat="1" spans="1:14">
       <c r="A22" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B22" s="74">
         <f>19/50</f>
@@ -72111,7 +72122,7 @@
     </row>
     <row r="23" s="74" customFormat="1" spans="1:12">
       <c r="A23" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B23" s="74">
         <f>16/59</f>
@@ -72136,7 +72147,7 @@
     </row>
     <row r="24" s="74" customFormat="1" spans="1:13">
       <c r="A24" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B24" s="74">
         <f>9/51</f>
@@ -72238,7 +72249,7 @@
     </row>
     <row r="26" s="74" customFormat="1" spans="1:11">
       <c r="A26" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B26" s="74">
         <f>5/16</f>
@@ -72279,7 +72290,7 @@
     </row>
     <row r="27" s="74" customFormat="1" spans="1:12">
       <c r="A27" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B27" s="74">
         <f>1/11</f>
@@ -72316,7 +72327,7 @@
     </row>
     <row r="28" s="74" customFormat="1" spans="1:13">
       <c r="A28" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B28" s="74">
         <f>0/10</f>
@@ -72402,7 +72413,7 @@
     </row>
     <row r="30" s="74" customFormat="1" spans="1:16">
       <c r="A30" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C30" s="74">
         <f>2/16</f>
@@ -72455,7 +72466,7 @@
     </row>
     <row r="31" s="74" customFormat="1" spans="1:17">
       <c r="A31" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B31" s="74">
         <f>0/17</f>
@@ -72512,7 +72523,7 @@
     </row>
     <row r="32" s="74" customFormat="1" spans="1:17">
       <c r="A32" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E32" s="74">
         <f>1/16</f>
@@ -72586,7 +72597,7 @@
     </row>
     <row r="34" s="74" customFormat="1" spans="1:17">
       <c r="A34" s="74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B34" s="74">
         <f>0/12</f>
@@ -72619,7 +72630,7 @@
     </row>
     <row r="35" s="74" customFormat="1" spans="1:17">
       <c r="A35" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D35" s="74">
         <f>0/10</f>
@@ -72656,7 +72667,7 @@
     </row>
     <row r="36" s="74" customFormat="1" spans="1:17">
       <c r="A36" s="74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L36" s="74">
         <f>0/16</f>
@@ -72705,19 +72716,19 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
       <c r="A1" s="64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F1" s="65" t="s">
         <v>143</v>
@@ -72728,141 +72739,141 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
       <c r="A2" s="67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E2" s="68">
         <v>50</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:7">
       <c r="A3" s="69"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68">
         <v>100</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:7">
       <c r="A4" s="69"/>
       <c r="B4" s="70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:7">
       <c r="A5" s="67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68">
         <v>50</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:7">
       <c r="A6" s="69"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68">
         <v>100</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:7">
       <c r="A7" s="67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="70">
         <v>200</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:7">
       <c r="A8" s="69"/>
       <c r="B8" s="70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70">
         <v>200</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -72894,7 +72905,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -72924,7 +72935,7 @@
     </row>
     <row r="2" ht="13.35" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -72976,7 +72987,7 @@
         <v>6</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:20">
@@ -72987,7 +72998,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -73012,7 +73023,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18"/>
@@ -73036,13 +73047,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="18"/>
@@ -73092,13 +73103,13 @@
       <c r="E7" s="18"/>
       <c r="F7" s="12"/>
       <c r="G7" s="37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="20"/>
@@ -73110,7 +73121,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="60"/>
       <c r="S7" s="26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T7" s="26"/>
     </row>
@@ -73124,13 +73135,13 @@
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="19"/>
@@ -73152,10 +73163,10 @@
       <c r="E9" s="18"/>
       <c r="F9" s="12"/>
       <c r="G9" s="40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="42"/>
@@ -73231,7 +73242,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="11"/>
       <c r="L12" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="52"/>
@@ -73377,10 +73388,10 @@
     <row r="19" spans="1:18">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>29</v>
@@ -73405,7 +73416,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C20" s="26">
         <v>0</v>
@@ -73437,7 +73448,7 @@
         <v>-50</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -73463,7 +73474,7 @@
         <v>-60</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -73489,7 +73500,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -73515,7 +73526,7 @@
         <v>-50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -73538,10 +73549,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -73580,7 +73591,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -73602,7 +73613,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>

--- a/experimental-data.xlsx
+++ b/experimental-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11040" windowHeight="9924" tabRatio="490" activeTab="8"/>
+    <workbookView windowWidth="22152" windowHeight="10260" tabRatio="490" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
@@ -2806,18 +2806,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
     <numFmt numFmtId="176" formatCode="0.000000000000000\ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00\ ;[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.00\ ;[Red]\(0.00\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
     <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="0_ "/>
+    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="78">
     <font>
@@ -3216,6 +3216,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3229,6 +3252,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3248,6 +3278,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3256,8 +3293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3265,6 +3303,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3279,52 +3325,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3339,14 +3347,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3386,13 +3386,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3404,31 +3470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3446,13 +3494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,61 +3524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,43 +3560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3976,6 +3976,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3990,21 +4005,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4039,26 +4039,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4073,145 +4064,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="13" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4232,49 +4232,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4283,10 +4283,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4318,40 +4318,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4363,19 +4363,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4384,72 +4384,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="186" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4478,14 +4478,14 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4535,15 +4535,15 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4580,10 +4580,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4592,55 +4592,55 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4752,46 +4752,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4878,28 +4878,28 @@
     <xf numFmtId="10" fontId="49" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4933,25 +4933,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5031,10 +5031,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -74415,8 +74415,8 @@
   <sheetPr/>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I49" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -74451,12 +74451,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="76" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="76" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="4" spans="2:21">
       <c r="B4" s="76" t="s">
         <v>25</v>
       </c>
@@ -74823,12 +74821,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="76" t="s">
+    <row r="13" spans="1:21">
+      <c r="A13" s="76" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="2:21">
       <c r="B13" s="76" t="s">
         <v>25</v>
       </c>
@@ -75195,12 +75191,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="76" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="76" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="22" spans="2:21">
       <c r="B22" s="76" t="s">
         <v>25</v>
       </c>
@@ -75813,7 +75807,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" ht="12.6" spans="1:1">
       <c r="A54" s="77" t="s">
         <v>387</v>
       </c>
@@ -75908,12 +75902,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="76" t="s">
+    <row r="66" spans="1:9">
+      <c r="A66" s="76" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="66" spans="2:9">
       <c r="B66" s="76" t="s">
         <v>428</v>
       </c>

--- a/experimental-data.xlsx
+++ b/experimental-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22152" windowHeight="10260" tabRatio="490" activeTab="8"/>
+    <workbookView windowWidth="17328" windowHeight="10260" tabRatio="490" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
@@ -2807,17 +2807,17 @@
   <numFmts count="13">
     <numFmt numFmtId="176" formatCode="0.000000000000000\ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.00\ ;[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00\ ;[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="183" formatCode="0.0000_ "/>
     <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="0_ "/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="0.0000"/>
   </numFmts>
   <fonts count="79">
     <font>
@@ -3222,21 +3222,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3245,9 +3230,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3285,7 +3276,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3307,13 +3313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3322,9 +3321,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3338,21 +3344,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3392,37 +3392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3434,109 +3404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3554,7 +3422,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,7 +3548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,21 +3982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4011,6 +3996,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4031,6 +4025,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4041,21 +4050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4071,153 +4065,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4225,7 +4225,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4238,49 +4238,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4289,10 +4289,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4324,40 +4324,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4369,19 +4369,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4390,73 +4390,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4544,7 +4544,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4559,23 +4560,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4587,10 +4588,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4599,55 +4600,55 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4759,46 +4760,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="44" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="52" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="52" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="53" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4885,28 +4886,28 @@
     <xf numFmtId="10" fontId="50" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="44" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4940,25 +4941,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5038,7 +5039,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5166,6 +5167,7 @@
     <mruColors>
       <color rgb="00E65EE8"/>
       <color rgb="00D33745"/>
+      <color rgb="00FF5151"/>
       <color rgb="00000000"/>
     </mruColors>
   </colors>
@@ -8888,6 +8890,464 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5151"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5151"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5151"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5151"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fr+epsp'!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>L23 E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L23 FS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L23 SOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VIP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>L4 E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>L4 FS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L4 SOM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>L5a E</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>L5a FS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>L5a SOM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L5b/6 E</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L5b/6 FS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>L5b/6 SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fr+epsp'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="0"/>
+        <c:axId val="583072506"/>
+        <c:axId val="272691787"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="583072506"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272691787"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="272691787"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>spikes/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="" altLang="en-US">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583072506"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8968,6 +9428,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9974,6 +10474,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -60519,6 +61524,36 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506095</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3849370" y="4445"/>
+        <a:ext cx="2961640" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -65339,7 +66374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
     </row>
@@ -65353,7 +66388,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
+      <c r="B3" s="173"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -65401,19 +66436,19 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="335">
+      <c r="H4" s="336">
         <f>D4/C4</f>
         <v>0.266201987246033</v>
       </c>
-      <c r="I4" s="335">
+      <c r="I4" s="336">
         <f>E4/C4</f>
         <v>0.099510603588907</v>
       </c>
-      <c r="J4" s="335">
+      <c r="J4" s="336">
         <f>F4/C4</f>
         <v>0.129912501853774</v>
       </c>
-      <c r="K4" s="337">
+      <c r="K4" s="338">
         <f t="shared" ref="K4:K7" si="0">SUM(H4:J4)</f>
         <v>0.495625092688714</v>
       </c>
@@ -65437,19 +66472,19 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="335">
+      <c r="H5" s="336">
         <f>D5/C5</f>
         <v>0.43448883666275</v>
       </c>
-      <c r="I5" s="335">
+      <c r="I5" s="336">
         <f>E5/C5</f>
         <v>0.169212690951821</v>
       </c>
-      <c r="J5" s="335">
+      <c r="J5" s="336">
         <f>F5/C5</f>
         <v>0.0289365452408931</v>
       </c>
-      <c r="K5" s="337">
+      <c r="K5" s="338">
         <f t="shared" si="0"/>
         <v>0.632638072855464</v>
       </c>
@@ -65473,19 +66508,19 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="335">
+      <c r="H6" s="336">
         <f>D6/C6</f>
         <v>0.562757032406646</v>
       </c>
-      <c r="I6" s="335">
+      <c r="I6" s="336">
         <f>E6/C6</f>
         <v>0.198716894226024</v>
       </c>
-      <c r="J6" s="335">
+      <c r="J6" s="336">
         <f>F6/C6</f>
         <v>0.0352031584142129</v>
       </c>
-      <c r="K6" s="337">
+      <c r="K6" s="338">
         <f t="shared" si="0"/>
         <v>0.796677085046883</v>
       </c>
@@ -65509,19 +66544,19 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="335">
+      <c r="H7" s="336">
         <f>D7/C7</f>
         <v>0.388904533934103</v>
       </c>
-      <c r="I7" s="335">
+      <c r="I7" s="336">
         <f>E7/C7</f>
         <v>0.239650802590819</v>
       </c>
-      <c r="J7" s="335">
+      <c r="J7" s="336">
         <f>F7/C7</f>
         <v>0.0802590819487468</v>
       </c>
-      <c r="K7" s="337">
+      <c r="K7" s="338">
         <f t="shared" si="0"/>
         <v>0.708814418473669</v>
       </c>
@@ -65530,10 +66565,10 @@
       <c r="A8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="335"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335"/>
-      <c r="L8" s="338"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="339"/>
     </row>
     <row r="9" spans="7:11">
       <c r="G9" s="1" t="s">
@@ -65548,7 +66583,7 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="338" t="s">
+      <c r="K9" s="339" t="s">
         <v>8</v>
       </c>
     </row>
@@ -65556,7 +66591,7 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="335">
+      <c r="H10" s="336">
         <v>0.253467843631778</v>
       </c>
       <c r="I10">
@@ -65565,7 +66600,7 @@
       <c r="J10">
         <v>0.20173266988678</v>
       </c>
-      <c r="K10" s="337">
+      <c r="K10" s="338">
         <f>SUM(H10:J10)</f>
         <v>0.660749063329402</v>
       </c>
@@ -65574,7 +66609,7 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="335">
+      <c r="H11" s="336">
         <v>0.564943253467843</v>
       </c>
       <c r="I11">
@@ -65583,7 +66618,7 @@
       <c r="J11">
         <v>0.0505423129276476</v>
       </c>
-      <c r="K11" s="337">
+      <c r="K11" s="338">
         <f>SUM(H11:J11)</f>
         <v>0.932005112423233</v>
       </c>
@@ -65592,7 +66627,7 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="335">
+      <c r="H12" s="336">
         <v>0.467843631778058</v>
       </c>
       <c r="I12">
@@ -65601,7 +66636,7 @@
       <c r="J12">
         <v>0.0304882295901412</v>
       </c>
-      <c r="K12" s="337">
+      <c r="K12" s="338">
         <f>SUM(H12:J12)</f>
         <v>0.952304118619144</v>
       </c>
@@ -65610,7 +66645,7 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="335">
+      <c r="H13" s="336">
         <v>0.365699873896595</v>
       </c>
       <c r="I13">
@@ -65619,38 +66654,38 @@
       <c r="J13">
         <v>0.030058817905773</v>
       </c>
-      <c r="K13" s="337">
+      <c r="K13" s="338">
         <f>SUM(H13:J13)</f>
         <v>0.834598540478282</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="D15" s="333"/>
-      <c r="E15" s="333"/>
-      <c r="F15" s="333"/>
+      <c r="B15" s="173"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="334"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="172"/>
+      <c r="B16" s="173"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="G17" s="336" t="s">
+      <c r="B17" s="173"/>
+      <c r="G17" s="337" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="336"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="336"/>
-      <c r="K17" s="336"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="337"/>
+      <c r="J17" s="337"/>
+      <c r="K17" s="337"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
@@ -65669,19 +66704,19 @@
       <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="336" t="s">
+      <c r="G18" s="337" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="336" t="s">
+      <c r="H18" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="336" t="s">
+      <c r="I18" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="336" t="s">
+      <c r="J18" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="336" t="s">
+      <c r="K18" s="337" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65696,35 +66731,35 @@
         <f>338+338</f>
         <v>676</v>
       </c>
-      <c r="D19" s="333">
+      <c r="D19" s="334">
         <f>C19-(E19+F19)</f>
         <v>520.909980720747</v>
       </c>
-      <c r="E19" s="333">
+      <c r="E19" s="334">
         <f>C19*I4</f>
         <v>67.2691680261011</v>
       </c>
-      <c r="F19" s="333">
+      <c r="F19" s="334">
         <f>C19*J4</f>
         <v>87.8208512531514</v>
       </c>
-      <c r="G19" s="336">
+      <c r="G19" s="337">
         <f>ROUND(B19/8,0)*8</f>
         <v>5096</v>
       </c>
-      <c r="H19" s="336">
+      <c r="H19" s="337">
         <f>ROUND(C19/8,0)*8</f>
         <v>680</v>
       </c>
-      <c r="I19" s="336">
+      <c r="I19" s="337">
         <f>ROUND(D19/8,0)*8</f>
         <v>520</v>
       </c>
-      <c r="J19" s="336">
+      <c r="J19" s="337">
         <f>ROUND(E19/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="K19" s="336">
+      <c r="K19" s="337">
         <f>ROUND(F19/8,0)*8</f>
         <v>88</v>
       </c>
@@ -65739,35 +66774,35 @@
       <c r="C20">
         <v>358</v>
       </c>
-      <c r="D20" s="333">
+      <c r="D20" s="334">
         <f>C20-(E20+F20)</f>
         <v>287.062573443008</v>
       </c>
-      <c r="E20" s="333">
+      <c r="E20" s="334">
         <f>C20*I5</f>
         <v>60.5781433607521</v>
       </c>
-      <c r="F20" s="333">
+      <c r="F20" s="334">
         <f>C20*J5</f>
         <v>10.3592831962397</v>
       </c>
-      <c r="G20" s="336">
+      <c r="G20" s="337">
         <f t="shared" ref="G20:G28" si="1">ROUND(B20/8,0)*8</f>
         <v>4088</v>
       </c>
-      <c r="H20" s="336">
+      <c r="H20" s="337">
         <f t="shared" ref="H20:H28" si="2">ROUND(C20/8,0)*8</f>
         <v>360</v>
       </c>
-      <c r="I20" s="336">
+      <c r="I20" s="337">
         <f t="shared" ref="I20:I28" si="3">ROUND(D20/8,0)*8</f>
         <v>288</v>
       </c>
-      <c r="J20" s="336">
+      <c r="J20" s="337">
         <f t="shared" ref="J20:J28" si="4">ROUND(E20/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="K20" s="336">
+      <c r="K20" s="337">
         <f t="shared" ref="K20:K28" si="5">ROUND(F20/8,0)*8</f>
         <v>8</v>
       </c>
@@ -65783,35 +66818,35 @@
         <f>343+362</f>
         <v>705</v>
       </c>
-      <c r="D21" s="333">
+      <c r="D21" s="334">
         <f>C21-(E21+F21)</f>
         <v>540.086362888633</v>
       </c>
-      <c r="E21" s="333">
+      <c r="E21" s="334">
         <f>C21*I6</f>
         <v>140.095410429347</v>
       </c>
-      <c r="F21" s="333">
+      <c r="F21" s="334">
         <f>C21*J6</f>
         <v>24.8182266820201</v>
       </c>
-      <c r="G21" s="336">
+      <c r="G21" s="337">
         <f t="shared" si="1"/>
         <v>3264</v>
       </c>
-      <c r="H21" s="336">
+      <c r="H21" s="337">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="I21" s="336">
+      <c r="I21" s="337">
         <f t="shared" si="3"/>
         <v>544</v>
       </c>
-      <c r="J21" s="336">
+      <c r="J21" s="337">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="K21" s="336">
+      <c r="K21" s="337">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -65827,35 +66862,35 @@
         <f>337+90</f>
         <v>427</v>
       </c>
-      <c r="D22" s="333">
+      <c r="D22" s="334">
         <f>C22-(E22+F22)</f>
         <v>290.398479301605</v>
       </c>
-      <c r="E22" s="333">
+      <c r="E22" s="334">
         <f>C22*I7</f>
         <v>102.33089270628</v>
       </c>
-      <c r="F22" s="333">
+      <c r="F22" s="334">
         <f>C22*J7</f>
         <v>34.2706279921149</v>
       </c>
-      <c r="G22" s="336">
+      <c r="G22" s="337">
         <f t="shared" si="1"/>
         <v>4424</v>
       </c>
-      <c r="H22" s="336">
+      <c r="H22" s="337">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="I22" s="336">
+      <c r="I22" s="337">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="J22" s="336">
+      <c r="J22" s="337">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="K22" s="336">
+      <c r="K22" s="337">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -65864,14 +66899,14 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="333"/>
-      <c r="E23" s="333"/>
-      <c r="F23" s="333"/>
-      <c r="G23" s="336"/>
-      <c r="H23" s="336"/>
-      <c r="I23" s="336"/>
-      <c r="J23" s="336"/>
-      <c r="K23" s="336"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="334"/>
+      <c r="F23" s="334"/>
+      <c r="G23" s="337"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
+      <c r="K23" s="337"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
@@ -65890,19 +66925,19 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="336" t="s">
+      <c r="G24" s="337" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="336" t="s">
+      <c r="H24" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="336" t="s">
+      <c r="I24" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="336" t="s">
+      <c r="J24" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="336" t="s">
+      <c r="K24" s="337" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65917,35 +66952,35 @@
         <f>338+338</f>
         <v>676</v>
       </c>
-      <c r="D25" s="333">
+      <c r="D25" s="334">
         <f t="shared" ref="D25:D28" si="6">C25-(E25+F25)</f>
         <v>400.677895484406</v>
       </c>
-      <c r="E25" s="333">
+      <c r="E25" s="334">
         <f>C25*I10</f>
         <v>138.950819672131</v>
       </c>
-      <c r="F25" s="333">
+      <c r="F25" s="334">
         <f>C25*J10</f>
         <v>136.371284843463</v>
       </c>
-      <c r="G25" s="336">
+      <c r="G25" s="337">
         <f t="shared" si="1"/>
         <v>5096</v>
       </c>
-      <c r="H25" s="336">
+      <c r="H25" s="337">
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="I25" s="336">
+      <c r="I25" s="337">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J25" s="336">
+      <c r="J25" s="337">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="K25" s="336">
+      <c r="K25" s="337">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
@@ -65960,35 +66995,35 @@
       <c r="C26">
         <v>358</v>
       </c>
-      <c r="D26" s="333">
+      <c r="D26" s="334">
         <f t="shared" si="6"/>
         <v>226.591854493971</v>
       </c>
-      <c r="E26" s="333">
+      <c r="E26" s="334">
         <f>C26*I11</f>
         <v>113.313997477932</v>
       </c>
-      <c r="F26" s="333">
+      <c r="F26" s="334">
         <f>C26*J11</f>
         <v>18.0941480280978</v>
       </c>
-      <c r="G26" s="336">
+      <c r="G26" s="337">
         <f t="shared" si="1"/>
         <v>4088</v>
       </c>
-      <c r="H26" s="336">
+      <c r="H26" s="337">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="I26" s="336">
+      <c r="I26" s="337">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="J26" s="336">
+      <c r="J26" s="337">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="K26" s="336">
+      <c r="K26" s="337">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -66004,35 +67039,35 @@
         <f>343+362</f>
         <v>705</v>
       </c>
-      <c r="D27" s="333">
+      <c r="D27" s="334">
         <f t="shared" si="6"/>
         <v>363.455356777034</v>
       </c>
-      <c r="E27" s="333">
+      <c r="E27" s="334">
         <f>C27*I12</f>
         <v>320.050441361916</v>
       </c>
-      <c r="F27" s="333">
+      <c r="F27" s="334">
         <f>C27*J12</f>
         <v>21.4942018610495</v>
       </c>
-      <c r="G27" s="336">
+      <c r="G27" s="337">
         <f t="shared" si="1"/>
         <v>3264</v>
       </c>
-      <c r="H27" s="336">
+      <c r="H27" s="337">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="I27" s="336">
+      <c r="I27" s="337">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="J27" s="336">
+      <c r="J27" s="337">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="K27" s="336">
+      <c r="K27" s="337">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -66048,35 +67083,35 @@
         <f>337+90</f>
         <v>427</v>
       </c>
-      <c r="D28" s="333">
+      <c r="D28" s="334">
         <f t="shared" si="6"/>
         <v>226.78026936962</v>
       </c>
-      <c r="E28" s="333">
+      <c r="E28" s="334">
         <f>C28*I13</f>
         <v>187.384615384615</v>
       </c>
-      <c r="F28" s="333">
+      <c r="F28" s="334">
         <f>C28*J13</f>
         <v>12.8351152457651</v>
       </c>
-      <c r="G28" s="336">
+      <c r="G28" s="337">
         <f t="shared" si="1"/>
         <v>4424</v>
       </c>
-      <c r="H28" s="336">
+      <c r="H28" s="337">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="I28" s="336">
+      <c r="I28" s="337">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="J28" s="336">
+      <c r="J28" s="337">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="K28" s="336">
+      <c r="K28" s="337">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -66093,14 +67128,14 @@
         <f>SUM(C25:C28)</f>
         <v>2166</v>
       </c>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="336"/>
-      <c r="H29" s="336"/>
-      <c r="I29" s="336"/>
-      <c r="J29" s="336"/>
-      <c r="K29" s="336"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="334"/>
+      <c r="F29" s="334"/>
+      <c r="G29" s="337"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="337"/>
+      <c r="J29" s="337"/>
+      <c r="K29" s="337"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -66110,14 +67145,14 @@
         <f>B29/C29</f>
         <v>7.79316712834718</v>
       </c>
-      <c r="D30" s="333"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="333"/>
-      <c r="G30" s="336"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="336"/>
-      <c r="J30" s="336"/>
-      <c r="K30" s="336"/>
+      <c r="D30" s="334"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="337"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="337"/>
+      <c r="J30" s="337"/>
+      <c r="K30" s="337"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="119"/>
@@ -66128,23 +67163,23 @@
       <c r="B32" s="119"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="173"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="172"/>
+      <c r="B35" s="173"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="G36" s="336" t="s">
+      <c r="B36" s="173"/>
+      <c r="G36" s="337" t="s">
         <v>17</v>
       </c>
     </row>
@@ -66165,19 +67200,19 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="336" t="s">
+      <c r="G37" s="337" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="336" t="s">
+      <c r="H37" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="336" t="s">
+      <c r="I37" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="336" t="s">
+      <c r="J37" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="336" t="s">
+      <c r="K37" s="337" t="s">
         <v>6</v>
       </c>
     </row>
@@ -66193,35 +67228,35 @@
         <f>107+123</f>
         <v>230</v>
       </c>
-      <c r="D38" s="334">
+      <c r="D38" s="335">
         <f>C38-E38-F38</f>
         <v>136.325319469546</v>
       </c>
-      <c r="E38" s="334">
+      <c r="E38" s="335">
         <f>C38*I10</f>
         <v>47.2761664564941</v>
       </c>
-      <c r="F38" s="334">
+      <c r="F38" s="335">
         <f>C38*J10</f>
         <v>46.3985140739594</v>
       </c>
-      <c r="G38" s="336">
+      <c r="G38" s="337">
         <f t="shared" ref="G38:G41" si="7">ROUND(B38/8,0)*8</f>
         <v>1688</v>
       </c>
-      <c r="H38" s="336">
+      <c r="H38" s="337">
         <f t="shared" ref="H38:H41" si="8">ROUND(C38/8,0)*8</f>
         <v>232</v>
       </c>
-      <c r="I38" s="336">
+      <c r="I38" s="337">
         <f t="shared" ref="I38:K38" si="9">ROUND(D38/8,0)*8</f>
         <v>136</v>
       </c>
-      <c r="J38" s="336">
+      <c r="J38" s="337">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="K38" s="336">
+      <c r="K38" s="337">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -66236,35 +67271,35 @@
       <c r="C39">
         <v>140</v>
       </c>
-      <c r="D39" s="334">
+      <c r="D39" s="335">
         <f>C39-E39-F39</f>
         <v>88.6113397462454</v>
       </c>
-      <c r="E39" s="334">
+      <c r="E39" s="335">
         <f>C39*I11</f>
         <v>44.3127364438839</v>
       </c>
-      <c r="F39" s="334">
+      <c r="F39" s="335">
         <f>C39*J11</f>
         <v>7.07592380987066</v>
       </c>
-      <c r="G39" s="336">
+      <c r="G39" s="337">
         <f t="shared" si="7"/>
         <v>1656</v>
       </c>
-      <c r="H39" s="336">
+      <c r="H39" s="337">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="I39" s="336">
+      <c r="I39" s="337">
         <f t="shared" ref="I39:K39" si="10">ROUND(D39/8,0)*8</f>
         <v>88</v>
       </c>
-      <c r="J39" s="336">
+      <c r="J39" s="337">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="K39" s="336">
+      <c r="K39" s="337">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -66281,35 +67316,35 @@
         <f>90+131</f>
         <v>221</v>
       </c>
-      <c r="D40" s="334">
+      <c r="D40" s="335">
         <f>C40-E40-F40</f>
         <v>113.93423240812</v>
       </c>
-      <c r="E40" s="334">
+      <c r="E40" s="335">
         <f>C40*I12</f>
         <v>100.327868852459</v>
       </c>
-      <c r="F40" s="334">
+      <c r="F40" s="335">
         <f>C40*J12</f>
         <v>6.7378987394212</v>
       </c>
-      <c r="G40" s="336">
+      <c r="G40" s="337">
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="H40" s="336">
+      <c r="H40" s="337">
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
-      <c r="I40" s="336">
+      <c r="I40" s="337">
         <f t="shared" ref="I40:K40" si="11">ROUND(D40/8,0)*8</f>
         <v>112</v>
       </c>
-      <c r="J40" s="336">
+      <c r="J40" s="337">
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="K40" s="336">
+      <c r="K40" s="337">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
@@ -66324,35 +67359,35 @@
       <c r="C41">
         <v>127</v>
       </c>
-      <c r="D41" s="334">
+      <c r="D41" s="335">
         <f>C41-E41-F41</f>
         <v>67.4498693441258</v>
       </c>
-      <c r="E41" s="334">
+      <c r="E41" s="335">
         <f>C41*I13</f>
         <v>55.7326607818411</v>
       </c>
-      <c r="F41" s="334">
+      <c r="F41" s="335">
         <f>C41*J13</f>
         <v>3.81746987403317</v>
       </c>
-      <c r="G41" s="336">
+      <c r="G41" s="337">
         <f t="shared" si="7"/>
         <v>1288</v>
       </c>
-      <c r="H41" s="336">
+      <c r="H41" s="337">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I41" s="336">
+      <c r="I41" s="337">
         <f t="shared" ref="I41:K41" si="12">ROUND(D41/8,0)*8</f>
         <v>64</v>
       </c>
-      <c r="J41" s="336">
+      <c r="J41" s="337">
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="K41" s="336">
+      <c r="K41" s="337">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -66369,9 +67404,9 @@
         <f>SUM(C38:C41)</f>
         <v>718</v>
       </c>
-      <c r="I42" s="336"/>
-      <c r="J42" s="336"/>
-      <c r="K42" s="336"/>
+      <c r="I42" s="337"/>
+      <c r="J42" s="337"/>
+      <c r="K42" s="337"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
@@ -68867,1822 +69902,1822 @@
   <sheetPr/>
   <dimension ref="A1:AKZ55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="12.4166666666667" style="172" customWidth="1"/>
-    <col min="2" max="2" width="15.7962962962963" style="172" customWidth="1"/>
-    <col min="3" max="3" width="11.6018518518519" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.2962962962963" style="172" customWidth="1"/>
-    <col min="5" max="5" width="11.7037037037037" style="172" customWidth="1"/>
-    <col min="6" max="6" width="10.7962962962963" style="172" customWidth="1"/>
-    <col min="7" max="7" width="10.2037037037037" style="172" customWidth="1"/>
-    <col min="8" max="8" width="10.8981481481481" style="172" customWidth="1"/>
-    <col min="9" max="9" width="9.2962962962963" style="172" customWidth="1"/>
-    <col min="10" max="10" width="9.60185185185185" style="172" customWidth="1"/>
-    <col min="11" max="11" width="9.7037037037037" style="172" customWidth="1"/>
-    <col min="12" max="12" width="10.1018518518519" style="172" customWidth="1"/>
-    <col min="13" max="13" width="11.1018518518519" style="172" customWidth="1"/>
-    <col min="14" max="14" width="10" style="172" customWidth="1"/>
-    <col min="15" max="15" width="9.10185185185185" style="172" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="172" customWidth="1"/>
-    <col min="17" max="17" width="27.1018518518519" style="172" customWidth="1"/>
-    <col min="18" max="18" width="84.7037037037037" style="172" customWidth="1"/>
-    <col min="19" max="987" width="8.5" style="172" customWidth="1"/>
+    <col min="1" max="1" width="12.4166666666667" style="173" customWidth="1"/>
+    <col min="2" max="2" width="15.7962962962963" style="173" customWidth="1"/>
+    <col min="3" max="3" width="11.6018518518519" style="173" customWidth="1"/>
+    <col min="4" max="4" width="11.2962962962963" style="173" customWidth="1"/>
+    <col min="5" max="5" width="11.7037037037037" style="173" customWidth="1"/>
+    <col min="6" max="6" width="10.7962962962963" style="173" customWidth="1"/>
+    <col min="7" max="7" width="10.2037037037037" style="173" customWidth="1"/>
+    <col min="8" max="8" width="10.8981481481481" style="173" customWidth="1"/>
+    <col min="9" max="9" width="9.2962962962963" style="173" customWidth="1"/>
+    <col min="10" max="10" width="9.60185185185185" style="173" customWidth="1"/>
+    <col min="11" max="11" width="9.7037037037037" style="173" customWidth="1"/>
+    <col min="12" max="12" width="10.1018518518519" style="173" customWidth="1"/>
+    <col min="13" max="13" width="11.1018518518519" style="173" customWidth="1"/>
+    <col min="14" max="14" width="10" style="173" customWidth="1"/>
+    <col min="15" max="15" width="9.10185185185185" style="173" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="173" customWidth="1"/>
+    <col min="17" max="17" width="27.1018518518519" style="173" customWidth="1"/>
+    <col min="18" max="18" width="84.7037037037037" style="173" customWidth="1"/>
+    <col min="19" max="987" width="8.5" style="173" customWidth="1"/>
     <col min="988" max="1020" width="8.5" customWidth="1"/>
     <col min="1021" max="1022" width="10.8981481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="173"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="175" t="s">
+      <c r="A1" s="174"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175" t="s">
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="298" t="s">
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
     </row>
     <row r="2" ht="13.35" spans="1:988">
-      <c r="A2" s="176"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="177" t="s">
+      <c r="J2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="177" t="s">
+      <c r="K2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="177" t="s">
+      <c r="M2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="177" t="s">
+      <c r="N2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="299" t="s">
+      <c r="O2" s="300" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="172" t="s">
+      <c r="Q2" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="172" t="s">
+      <c r="R2" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="172" t="s">
+      <c r="S2" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="AKZ2" s="172"/>
+      <c r="AKZ2" s="173"/>
     </row>
     <row r="3" ht="63" spans="1:988">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241" t="s">
+      <c r="F3" s="241"/>
+      <c r="G3" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="241"/>
-      <c r="J3" s="179" t="s">
+      <c r="I3" s="242"/>
+      <c r="J3" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="281" t="s">
+      <c r="K3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="281" t="s">
+      <c r="L3" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="179" t="s">
+      <c r="M3" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="241"/>
-      <c r="O3" s="300"/>
-      <c r="Q3" s="172" t="s">
+      <c r="N3" s="242"/>
+      <c r="O3" s="301"/>
+      <c r="Q3" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="331" t="s">
+      <c r="R3" s="332" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="172" t="s">
+      <c r="S3" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="AKZ3" s="172"/>
+      <c r="AKZ3" s="173"/>
     </row>
     <row r="4" ht="25.2" spans="1:988">
-      <c r="A4" s="181"/>
-      <c r="B4" s="182" t="s">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="189" t="s">
+      <c r="E4" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="242"/>
-      <c r="G4" s="192" t="s">
+      <c r="F4" s="243"/>
+      <c r="G4" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="282" t="s">
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="184" t="s">
+      <c r="K4" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="184" t="s">
+      <c r="L4" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="301"/>
-      <c r="Q4" s="172" t="s">
+      <c r="M4" s="184"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="302"/>
+      <c r="Q4" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="331" t="s">
+      <c r="R4" s="332" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="172" t="s">
+      <c r="S4" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="AKZ4" s="172"/>
+      <c r="AKZ4" s="173"/>
     </row>
     <row r="5" ht="37.8" spans="1:988">
-      <c r="A5" s="181"/>
-      <c r="B5" s="182" t="s">
+      <c r="A5" s="182"/>
+      <c r="B5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="243" t="s">
+      <c r="E5" s="185"/>
+      <c r="F5" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="282"/>
-      <c r="K5" s="184" t="s">
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="301"/>
-      <c r="Q5" s="172" t="s">
+      <c r="L5" s="185"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="302"/>
+      <c r="Q5" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="332" t="s">
+      <c r="R5" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="AKZ5" s="172"/>
+      <c r="AKZ5" s="173"/>
     </row>
     <row r="6" ht="37.8" spans="1:988">
-      <c r="A6" s="181"/>
-      <c r="B6" s="182" t="s">
+      <c r="A6" s="182"/>
+      <c r="B6" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="304"/>
-      <c r="Q6" s="172" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="304"/>
+      <c r="O6" s="305"/>
+      <c r="Q6" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="332" t="s">
+      <c r="R6" s="333" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="172" t="s">
+      <c r="S6" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ6" s="172"/>
+      <c r="AKZ6" s="173"/>
     </row>
     <row r="7" ht="75.6" spans="1:988">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="190" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="194" t="s">
+      <c r="H7" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="190" t="s">
+      <c r="J7" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="190" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="194"/>
-      <c r="O7" s="305"/>
-      <c r="Q7" s="172" t="s">
+      <c r="N7" s="195"/>
+      <c r="O7" s="306"/>
+      <c r="Q7" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="172" t="s">
+      <c r="R7" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="172" t="s">
+      <c r="S7" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="AKZ7" s="172"/>
+      <c r="AKZ7" s="173"/>
     </row>
     <row r="8" ht="88.2" spans="1:988">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="183" t="s">
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="189" t="s">
+      <c r="H8" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="189" t="s">
+      <c r="I8" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="183"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="301"/>
-      <c r="Q8" s="172" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="190"/>
+      <c r="O8" s="302"/>
+      <c r="Q8" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="331" t="s">
+      <c r="R8" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="AKZ8" s="172"/>
+      <c r="AKZ8" s="173"/>
     </row>
     <row r="9" ht="50.4" spans="1:988">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182" t="s">
+      <c r="A9" s="182"/>
+      <c r="B9" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="247" t="s">
+      <c r="C9" s="184"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="189" t="s">
+      <c r="I9" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="183"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="301"/>
-      <c r="Q9" s="172" t="s">
+      <c r="J9" s="184"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="302"/>
+      <c r="Q9" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="332" t="s">
+      <c r="R9" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="S9" s="172" t="s">
+      <c r="S9" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="AKZ9" s="172"/>
+      <c r="AKZ9" s="173"/>
     </row>
     <row r="10" ht="63" spans="1:988">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="191" t="s">
+      <c r="E10" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="248"/>
-      <c r="G10" s="190" t="s">
+      <c r="F10" s="249"/>
+      <c r="G10" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="190" t="s">
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="191" t="s">
+      <c r="K10" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="284" t="s">
+      <c r="L10" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="190" t="s">
+      <c r="M10" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="194"/>
-      <c r="O10" s="305"/>
-      <c r="Q10" s="172" t="s">
+      <c r="N10" s="195"/>
+      <c r="O10" s="306"/>
+      <c r="Q10" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="331" t="s">
+      <c r="R10" s="332" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="172" t="s">
+      <c r="S10" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="AKZ10" s="172"/>
+      <c r="AKZ10" s="173"/>
     </row>
     <row r="11" ht="25.2" spans="1:988">
-      <c r="A11" s="181"/>
-      <c r="B11" s="182" t="s">
+      <c r="A11" s="182"/>
+      <c r="B11" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="192" t="s">
+      <c r="E11" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="249"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="188" t="s">
+      <c r="F11" s="250"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="192" t="s">
+      <c r="K11" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="285" t="s">
+      <c r="L11" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="183"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="301"/>
-      <c r="Q11" s="172" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="302"/>
+      <c r="Q11" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="332" t="s">
+      <c r="R11" s="333" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="172" t="s">
+      <c r="S11" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ11" s="172"/>
+      <c r="AKZ11" s="173"/>
     </row>
     <row r="12" ht="25.2" spans="1:988">
-      <c r="A12" s="181"/>
-      <c r="B12" s="182" t="s">
+      <c r="A12" s="182"/>
+      <c r="B12" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="188" t="s">
+      <c r="C12" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="192"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="286" t="s">
+      <c r="E12" s="193"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="287" t="s">
+      <c r="K12" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="301"/>
-      <c r="Q12" s="172" t="s">
+      <c r="L12" s="289"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="302"/>
+      <c r="Q12" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="332" t="s">
+      <c r="R12" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="AKZ12" s="172"/>
+      <c r="AKZ12" s="173"/>
     </row>
     <row r="13" ht="51.15" spans="1:988">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="190" t="s">
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="189" t="s">
+      <c r="H13" s="195"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="190" t="s">
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="194"/>
-      <c r="O13" s="305"/>
-      <c r="Q13" s="172" t="s">
+      <c r="N13" s="195"/>
+      <c r="O13" s="306"/>
+      <c r="Q13" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="332" t="s">
+      <c r="R13" s="333" t="s">
         <v>114</v>
       </c>
-      <c r="AKZ13" s="172"/>
+      <c r="AKZ13" s="173"/>
     </row>
     <row r="14" ht="25.95" spans="1:988">
-      <c r="A14" s="193"/>
-      <c r="B14" s="182" t="s">
+      <c r="A14" s="194"/>
+      <c r="B14" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="301"/>
-      <c r="Q14" s="172" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="302"/>
+      <c r="Q14" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="R14" s="332" t="s">
+      <c r="R14" s="333" t="s">
         <v>116</v>
       </c>
-      <c r="AKZ14" s="172"/>
+      <c r="AKZ14" s="173"/>
     </row>
     <row r="15" ht="25.95" spans="1:988">
-      <c r="A15" s="193"/>
-      <c r="B15" s="195" t="s">
+      <c r="A15" s="194"/>
+      <c r="B15" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="306"/>
-      <c r="Q15" s="172" t="s">
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="307"/>
+      <c r="Q15" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="332" t="s">
+      <c r="R15" s="333" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="172" t="s">
+      <c r="S15" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AKZ15" s="172"/>
+      <c r="AKZ15" s="173"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:988">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="199"/>
-      <c r="R16" s="332"/>
-      <c r="AKZ16" s="172"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="200"/>
+      <c r="R16" s="333"/>
+      <c r="AKZ16" s="173"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175" t="s">
+      <c r="A17" s="174"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175" t="s">
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175" t="s">
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="298" t="s">
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="298"/>
-      <c r="O17" s="298"/>
+      <c r="N17" s="299"/>
+      <c r="O17" s="299"/>
     </row>
     <row r="18" ht="13.35" spans="1:988">
-      <c r="A18" s="200"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="201" t="s">
+      <c r="D18" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="201" t="s">
+      <c r="E18" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="201" t="s">
+      <c r="F18" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="201" t="s">
+      <c r="G18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="201" t="s">
+      <c r="H18" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="201" t="s">
+      <c r="I18" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="201" t="s">
+      <c r="J18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="201" t="s">
+      <c r="K18" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="201" t="s">
+      <c r="L18" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="201" t="s">
+      <c r="M18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="201" t="s">
+      <c r="N18" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="307" t="s">
+      <c r="O18" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="AKZ18" s="172"/>
+      <c r="AKZ18" s="173"/>
     </row>
     <row r="19" ht="13.35" spans="1:15">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="202">
+      <c r="C19" s="203">
         <f>(88+10+22+96)/(950+183+182+513)</f>
         <v>0.118161925601751</v>
       </c>
-      <c r="D19" s="203">
+      <c r="D19" s="204">
         <v>0.43</v>
       </c>
-      <c r="E19" s="253">
+      <c r="E19" s="254">
         <f>35/56</f>
         <v>0.625</v>
       </c>
-      <c r="F19" s="254"/>
-      <c r="G19" s="255">
+      <c r="F19" s="255"/>
+      <c r="G19" s="256">
         <f>(25+25)/(208+172)</f>
         <v>0.131578947368421</v>
       </c>
-      <c r="H19" s="256"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="290">
+      <c r="H19" s="257"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="291">
         <f>(9+2+1+3)/(209+89+104+167)</f>
         <v>0.0263620386643234</v>
       </c>
-      <c r="K19" s="203">
+      <c r="K19" s="204">
         <f>7/69</f>
         <v>0.101449275362319</v>
       </c>
-      <c r="L19" s="203">
+      <c r="L19" s="204">
         <f>21/100</f>
         <v>0.21</v>
       </c>
-      <c r="M19" s="290">
+      <c r="M19" s="291">
         <v>0</v>
       </c>
-      <c r="N19" s="289"/>
-      <c r="O19" s="308"/>
+      <c r="N19" s="290"/>
+      <c r="O19" s="309"/>
     </row>
     <row r="20" ht="13.35" spans="1:15">
-      <c r="A20" s="178"/>
-      <c r="B20" s="182" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="204">
+      <c r="C20" s="205">
         <v>0.51</v>
       </c>
-      <c r="D20" s="205">
+      <c r="D20" s="206">
         <f>168/359</f>
         <v>0.467966573816156</v>
       </c>
-      <c r="E20" s="211">
+      <c r="E20" s="212">
         <f>9/31</f>
         <v>0.290322580645161</v>
       </c>
-      <c r="F20" s="257"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="214">
+      <c r="F20" s="258"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="215">
         <f>5/173</f>
         <v>0.0289017341040462</v>
       </c>
-      <c r="K20" s="205">
+      <c r="K20" s="206">
         <f>24/110</f>
         <v>0.218181818181818</v>
       </c>
-      <c r="L20" s="205">
+      <c r="L20" s="206">
         <f>31/123</f>
         <v>0.252032520325203</v>
       </c>
-      <c r="M20" s="204"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="309"/>
+      <c r="M20" s="205"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="310"/>
     </row>
     <row r="21" ht="13.35" spans="1:15">
-      <c r="A21" s="178"/>
-      <c r="B21" s="182" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="204">
+      <c r="C21" s="205">
         <v>0.31</v>
       </c>
-      <c r="D21" s="205">
+      <c r="D21" s="206">
         <f>12/21</f>
         <v>0.571428571428571</v>
       </c>
-      <c r="E21" s="228">
+      <c r="E21" s="229">
         <f>4/112</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="F21" s="259">
+      <c r="F21" s="260">
         <f>11/31</f>
         <v>0.354838709677419</v>
       </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="205">
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="206">
         <f>1/40</f>
         <v>0.025</v>
       </c>
-      <c r="L21" s="205"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="309"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="205"/>
+      <c r="N21" s="212"/>
+      <c r="O21" s="310"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="178"/>
-      <c r="B22" s="182" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="291"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="292"/>
-      <c r="M22" s="291"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="310"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="293"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="262"/>
+      <c r="O22" s="311"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="208">
+      <c r="C23" s="209">
         <f>(2+4)/(208+170)</f>
         <v>0.0158730158730159</v>
       </c>
-      <c r="D23" s="209"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="212">
+      <c r="D23" s="210"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="213">
         <f>254/1046</f>
         <v>0.24282982791587</v>
       </c>
-      <c r="H23" s="216">
+      <c r="H23" s="217">
         <v>0.63</v>
       </c>
-      <c r="I23" s="264">
+      <c r="I23" s="265">
         <v>0.38</v>
       </c>
-      <c r="J23" s="215">
+      <c r="J23" s="216">
         <f>(2+1)/(275+137)</f>
         <v>0.00728155339805825</v>
       </c>
-      <c r="K23" s="264"/>
-      <c r="L23" s="264"/>
-      <c r="M23" s="263">
+      <c r="K23" s="265"/>
+      <c r="L23" s="265"/>
+      <c r="M23" s="264">
         <v>0</v>
       </c>
-      <c r="N23" s="264"/>
-      <c r="O23" s="311"/>
+      <c r="N23" s="265"/>
+      <c r="O23" s="312"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="181"/>
-      <c r="B24" s="182" t="s">
+      <c r="A24" s="182"/>
+      <c r="B24" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="208">
+      <c r="C24" s="211"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="209">
         <v>0.129</v>
       </c>
-      <c r="H24" s="211">
+      <c r="H24" s="212">
         <v>0.48</v>
       </c>
-      <c r="I24" s="211">
+      <c r="I24" s="212">
         <v>0.56</v>
       </c>
-      <c r="J24" s="204"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="309"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="310"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="181"/>
-      <c r="B25" s="182" t="s">
+      <c r="A25" s="182"/>
+      <c r="B25" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="204"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="259"/>
-      <c r="G25" s="208">
+      <c r="C25" s="205"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="209">
         <f>8/64</f>
         <v>0.125</v>
       </c>
-      <c r="H25" s="211">
+      <c r="H25" s="212">
         <v>0.61</v>
       </c>
-      <c r="I25" s="217">
+      <c r="I25" s="218">
         <f>2/52</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="J25" s="204"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="309"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="212"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="310"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="212">
+      <c r="C26" s="213">
         <f>(20+9+5+20)/(211+108+87+164)</f>
         <v>0.0947368421052632</v>
       </c>
-      <c r="D26" s="213">
+      <c r="D26" s="214">
         <f>11/185</f>
         <v>0.0594594594594595</v>
       </c>
-      <c r="E26" s="213">
+      <c r="E26" s="214">
         <f>6/74</f>
         <v>0.0810810810810811</v>
       </c>
-      <c r="F26" s="262"/>
-      <c r="G26" s="263">
+      <c r="F26" s="263"/>
+      <c r="G26" s="264">
         <f>(32+11)/(276+136)</f>
         <v>0.104368932038835</v>
       </c>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="212">
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="213">
         <f>(178+14+3+40)/(934+175+174+555)</f>
         <v>0.127856365614799</v>
       </c>
-      <c r="K26" s="213">
+      <c r="K26" s="214">
         <f>33/132</f>
         <v>0.25</v>
       </c>
-      <c r="L26" s="293">
+      <c r="L26" s="294">
         <f>24/114</f>
         <v>0.210526315789474</v>
       </c>
-      <c r="M26" s="263">
+      <c r="M26" s="264">
         <f>(1+2)/(160+100)</f>
         <v>0.0115384615384615</v>
       </c>
-      <c r="N26" s="264"/>
-      <c r="O26" s="311"/>
+      <c r="N26" s="265"/>
+      <c r="O26" s="312"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="181"/>
-      <c r="B27" s="182" t="s">
+      <c r="A27" s="182"/>
+      <c r="B27" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="214">
+      <c r="C27" s="215">
         <f>5/63</f>
         <v>0.0793650793650794</v>
       </c>
-      <c r="D27" s="205">
+      <c r="D27" s="206">
         <f>15/110</f>
         <v>0.136363636363636</v>
       </c>
-      <c r="E27" s="205">
+      <c r="E27" s="206">
         <f>2/40</f>
         <v>0.05</v>
       </c>
-      <c r="F27" s="265"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="214">
+      <c r="F27" s="266"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="215">
         <f>13/115</f>
         <v>0.11304347826087</v>
       </c>
-      <c r="K27" s="205">
+      <c r="K27" s="206">
         <f>32/67</f>
         <v>0.477611940298507</v>
       </c>
-      <c r="L27" s="294">
+      <c r="L27" s="295">
         <f>26/75</f>
         <v>0.346666666666667</v>
       </c>
-      <c r="M27" s="204"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="309"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="310"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="181"/>
-      <c r="B28" s="182" t="s">
+      <c r="A28" s="182"/>
+      <c r="B28" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="214">
+      <c r="C28" s="215">
         <f>10/89</f>
         <v>0.112359550561798</v>
       </c>
-      <c r="D28" s="205">
+      <c r="D28" s="206">
         <f>1/123</f>
         <v>0.00813008130081301</v>
       </c>
-      <c r="E28" s="266"/>
-      <c r="F28" s="267"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="295">
+      <c r="E28" s="267"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="296">
         <f>8/102</f>
         <v>0.0784313725490196</v>
       </c>
-      <c r="K28" s="296">
+      <c r="K28" s="297">
         <f>12/76</f>
         <v>0.157894736842105</v>
       </c>
-      <c r="L28" s="274">
+      <c r="L28" s="275">
         <f>14/281</f>
         <v>0.0498220640569395</v>
       </c>
-      <c r="M28" s="204"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="309"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="212"/>
+      <c r="O28" s="310"/>
     </row>
     <row r="29" ht="13.35" spans="1:15">
-      <c r="A29" s="193" t="s">
+      <c r="A29" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="215">
+      <c r="C29" s="216">
         <v>0</v>
       </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="215">
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="216">
         <f>3/93</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="H29" s="216"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="217">
+      <c r="H29" s="217"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="218">
         <f>(5+7)/(158+100)</f>
         <v>0.0465116279069767</v>
       </c>
-      <c r="K29" s="217"/>
-      <c r="L29" s="217"/>
-      <c r="M29" s="215">
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="216">
         <f>15/532</f>
         <v>0.0281954887218045</v>
       </c>
-      <c r="N29" s="312">
+      <c r="N29" s="313">
         <f t="shared" ref="N29:N31" si="0">AVERAGE(D19,H23,K26)</f>
         <v>0.436666666666667</v>
       </c>
-      <c r="O29" s="313">
+      <c r="O29" s="314">
         <f t="shared" ref="O29:O31" si="1">AVERAGE(E19,I23,L26)</f>
         <v>0.405175438596491</v>
       </c>
     </row>
     <row r="30" ht="13.35" spans="1:15">
-      <c r="A30" s="193"/>
-      <c r="B30" s="182" t="s">
+      <c r="A30" s="194"/>
+      <c r="B30" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="208"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="217"/>
-      <c r="L30" s="217"/>
-      <c r="M30" s="314">
+      <c r="C30" s="209"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="315">
         <f>AVERAGE(C20,G24,J27)</f>
         <v>0.25068115942029</v>
       </c>
-      <c r="N30" s="315">
+      <c r="N30" s="316">
         <f t="shared" si="0"/>
         <v>0.475192838038221</v>
       </c>
-      <c r="O30" s="316">
+      <c r="O30" s="317">
         <f t="shared" si="1"/>
         <v>0.398996415770609</v>
       </c>
     </row>
     <row r="31" ht="13.35" spans="1:15">
-      <c r="A31" s="193"/>
-      <c r="B31" s="195" t="s">
+      <c r="A31" s="194"/>
+      <c r="B31" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="270"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="270"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="317">
+      <c r="C31" s="219"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="271"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="318">
         <f>AVERAGE(C21,G25,J28)</f>
         <v>0.171143790849673</v>
       </c>
-      <c r="N31" s="318">
+      <c r="N31" s="319">
         <f t="shared" si="0"/>
         <v>0.446441102756892</v>
       </c>
-      <c r="O31" s="319">
+      <c r="O31" s="320">
         <f t="shared" si="1"/>
         <v>0.0413326294109212</v>
       </c>
     </row>
     <row r="32" ht="50.4" spans="1:15">
-      <c r="A32" s="220" t="s">
+      <c r="A32" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="221" t="s">
+      <c r="B32" s="222" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="222" t="s">
+      <c r="C32" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="320"/>
-      <c r="N32" s="320"/>
-      <c r="O32" s="320"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="321"/>
+      <c r="N32" s="321"/>
+      <c r="O32" s="321"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="224"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="223"/>
-      <c r="L33" s="223"/>
-      <c r="M33" s="320"/>
-      <c r="N33" s="320"/>
-      <c r="O33" s="320"/>
+      <c r="A33" s="225"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="321"/>
+      <c r="N33" s="321"/>
+      <c r="O33" s="321"/>
     </row>
     <row r="34" ht="13.35" spans="1:15">
-      <c r="A34" s="198" t="s">
+      <c r="A34" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="198" t="s">
+      <c r="B34" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="223"/>
-      <c r="L34" s="223"/>
-      <c r="M34" s="320"/>
-      <c r="N34" s="320"/>
-      <c r="O34" s="320"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="321"/>
+      <c r="N34" s="321"/>
+      <c r="O34" s="321"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175" t="s">
+      <c r="A35" s="174"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175" t="s">
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175" t="s">
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="298" t="s">
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="299" t="s">
         <v>128</v>
       </c>
-      <c r="N35" s="298"/>
-      <c r="O35" s="298"/>
+      <c r="N35" s="299"/>
+      <c r="O35" s="299"/>
     </row>
     <row r="36" ht="13.35" spans="1:15">
-      <c r="A36" s="200"/>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201" t="s">
+      <c r="A36" s="201"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="201" t="s">
+      <c r="D36" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="201" t="s">
+      <c r="E36" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="201" t="s">
+      <c r="F36" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="201" t="s">
+      <c r="G36" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="201" t="s">
+      <c r="H36" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="201" t="s">
+      <c r="I36" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="201" t="s">
+      <c r="J36" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="201" t="s">
+      <c r="K36" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="201" t="s">
+      <c r="L36" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="201" t="s">
+      <c r="M36" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="201" t="s">
+      <c r="N36" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="O36" s="307" t="s">
+      <c r="O36" s="308" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" ht="13.35" spans="1:15">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="175" t="s">
+      <c r="B37" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="225"/>
-      <c r="D37" s="226">
+      <c r="C37" s="226"/>
+      <c r="D37" s="227">
         <f>17/49</f>
         <v>0.346938775510204</v>
       </c>
-      <c r="E37" s="226">
+      <c r="E37" s="227">
         <f>11/53</f>
         <v>0.207547169811321</v>
       </c>
-      <c r="F37" s="271">
+      <c r="F37" s="272">
         <f>1/48</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="G37" s="226"/>
-      <c r="H37" s="272">
+      <c r="G37" s="227"/>
+      <c r="H37" s="273">
         <f>7/16</f>
         <v>0.4375</v>
       </c>
-      <c r="I37" s="226">
+      <c r="I37" s="227">
         <f>3/11</f>
         <v>0.272727272727273</v>
       </c>
-      <c r="J37" s="225"/>
-      <c r="K37" s="226"/>
-      <c r="L37" s="272">
+      <c r="J37" s="226"/>
+      <c r="K37" s="227"/>
+      <c r="L37" s="273">
         <f>1/15</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="M37" s="225"/>
-      <c r="N37" s="272">
+      <c r="M37" s="226"/>
+      <c r="N37" s="273">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="O37" s="321"/>
+      <c r="O37" s="322"/>
     </row>
     <row r="38" ht="13.35" spans="1:15">
-      <c r="A38" s="178"/>
-      <c r="B38" s="182" t="s">
+      <c r="A38" s="179"/>
+      <c r="B38" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="227">
+      <c r="C38" s="228">
         <f>19/50</f>
         <v>0.38</v>
       </c>
-      <c r="D38" s="228">
+      <c r="D38" s="229">
         <f>36/97</f>
         <v>0.371134020618557</v>
       </c>
-      <c r="E38" s="229">
+      <c r="E38" s="230">
         <f>10/64</f>
         <v>0.15625</v>
       </c>
-      <c r="F38" s="273">
+      <c r="F38" s="274">
         <f>1/47</f>
         <v>0.0212765957446809</v>
       </c>
-      <c r="G38" s="228">
+      <c r="G38" s="229">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="H38" s="228">
+      <c r="H38" s="229">
         <f>4/19</f>
         <v>0.210526315789474</v>
       </c>
-      <c r="I38" s="229"/>
-      <c r="J38" s="232">
+      <c r="I38" s="230"/>
+      <c r="J38" s="233">
         <f>1/(8+20)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="K38" s="228">
+      <c r="K38" s="229">
         <f>1/17</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="L38" s="229"/>
-      <c r="M38" s="232">
+      <c r="L38" s="230"/>
+      <c r="M38" s="233">
         <f>0/11</f>
         <v>0</v>
       </c>
-      <c r="N38" s="229"/>
-      <c r="O38" s="322"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="323"/>
     </row>
     <row r="39" ht="13.35" spans="1:15">
-      <c r="A39" s="178"/>
-      <c r="B39" s="182" t="s">
+      <c r="A39" s="179"/>
+      <c r="B39" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="227">
+      <c r="C39" s="228">
         <f>16/59</f>
         <v>0.271186440677966</v>
       </c>
-      <c r="D39" s="229">
+      <c r="D39" s="230">
         <f>5/68</f>
         <v>0.0735294117647059</v>
       </c>
-      <c r="E39" s="228">
+      <c r="E39" s="229">
         <f>4/112</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="F39" s="273">
+      <c r="F39" s="274">
         <f>4/27</f>
         <v>0.148148148148148</v>
       </c>
-      <c r="G39" s="229"/>
-      <c r="H39" s="229"/>
-      <c r="I39" s="229"/>
-      <c r="J39" s="227"/>
-      <c r="K39" s="229"/>
-      <c r="L39" s="228">
+      <c r="G39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="228"/>
+      <c r="K39" s="230"/>
+      <c r="L39" s="229">
         <f>0/14</f>
         <v>0</v>
       </c>
-      <c r="M39" s="227"/>
-      <c r="N39" s="229"/>
-      <c r="O39" s="322"/>
+      <c r="M39" s="228"/>
+      <c r="N39" s="230"/>
+      <c r="O39" s="323"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="178"/>
-      <c r="B40" s="182" t="s">
+      <c r="A40" s="179"/>
+      <c r="B40" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="230">
+      <c r="C40" s="231">
         <f>9/51</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="D40" s="231">
+      <c r="D40" s="232">
         <f>0/47</f>
         <v>0</v>
       </c>
-      <c r="E40" s="231">
+      <c r="E40" s="232">
         <f>4/27</f>
         <v>0.148148148148148</v>
       </c>
-      <c r="F40" s="274">
+      <c r="F40" s="275">
         <f>0/118</f>
         <v>0</v>
       </c>
-      <c r="G40" s="231">
+      <c r="G40" s="232">
         <f>1/22</f>
         <v>0.0454545454545455</v>
       </c>
-      <c r="H40" s="231">
+      <c r="H40" s="232">
         <f>0/10</f>
         <v>0</v>
       </c>
-      <c r="I40" s="231">
+      <c r="I40" s="232">
         <f>4/24</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="J40" s="230">
+      <c r="J40" s="231">
         <f>0/(8+11)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="231">
+      <c r="K40" s="232">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="L40" s="231">
+      <c r="L40" s="232">
         <f>3/18</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="M40" s="323"/>
-      <c r="N40" s="324"/>
-      <c r="O40" s="325"/>
+      <c r="M40" s="324"/>
+      <c r="N40" s="325"/>
+      <c r="O40" s="326"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="227"/>
-      <c r="D41" s="228">
+      <c r="C41" s="228"/>
+      <c r="D41" s="229">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-      <c r="E41" s="229">
+      <c r="E41" s="230">
         <f>1/23</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="F41" s="273">
+      <c r="F41" s="274">
         <f>0/19</f>
         <v>0</v>
       </c>
-      <c r="G41" s="233"/>
-      <c r="H41" s="235">
+      <c r="G41" s="234"/>
+      <c r="H41" s="236">
         <f>7/34</f>
         <v>0.205882352941176</v>
       </c>
-      <c r="I41" s="235">
+      <c r="I41" s="236">
         <f>4/13</f>
         <v>0.307692307692308</v>
       </c>
-      <c r="J41" s="276"/>
-      <c r="K41" s="234">
+      <c r="J41" s="277"/>
+      <c r="K41" s="235">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="L41" s="234">
+      <c r="L41" s="235">
         <f>1/19</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="235"/>
-      <c r="O41" s="326"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="236"/>
+      <c r="O41" s="327"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="181"/>
-      <c r="B42" s="182" t="s">
+      <c r="A42" s="182"/>
+      <c r="B42" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="232">
+      <c r="C42" s="233">
         <f>5/16</f>
         <v>0.3125</v>
       </c>
-      <c r="D42" s="228">
+      <c r="D42" s="229">
         <f>3/17</f>
         <v>0.176470588235294</v>
       </c>
-      <c r="E42" s="229"/>
-      <c r="F42" s="273">
+      <c r="E42" s="230"/>
+      <c r="F42" s="274">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="G42" s="227">
+      <c r="G42" s="228">
         <f>4/33</f>
         <v>0.121212121212121</v>
       </c>
-      <c r="H42" s="229">
+      <c r="H42" s="230">
         <f>26/55</f>
         <v>0.472727272727273</v>
       </c>
-      <c r="I42" s="229">
+      <c r="I42" s="230">
         <f>0/2</f>
         <v>0</v>
       </c>
-      <c r="J42" s="232">
+      <c r="J42" s="233">
         <f>0/(9+15)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="228">
+      <c r="K42" s="229">
         <f>6/25</f>
         <v>0.24</v>
       </c>
-      <c r="L42" s="228"/>
-      <c r="M42" s="227"/>
-      <c r="N42" s="229"/>
-      <c r="O42" s="322"/>
+      <c r="L42" s="229"/>
+      <c r="M42" s="228"/>
+      <c r="N42" s="230"/>
+      <c r="O42" s="323"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="181"/>
-      <c r="B43" s="182" t="s">
+      <c r="A43" s="182"/>
+      <c r="B43" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="232">
+      <c r="C43" s="233">
         <f>1/11</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="D43" s="228"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="273">
+      <c r="D43" s="229"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="274">
         <f>4/24</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="G43" s="227">
+      <c r="G43" s="228">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="H43" s="229">
+      <c r="H43" s="230">
         <f>0/2</f>
         <v>0</v>
       </c>
-      <c r="I43" s="229">
+      <c r="I43" s="230">
         <f>0/39</f>
         <v>0</v>
       </c>
-      <c r="J43" s="232">
+      <c r="J43" s="233">
         <f>1/(7+6)</f>
         <v>0.0769230769230769</v>
       </c>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228">
+      <c r="K43" s="229"/>
+      <c r="L43" s="229">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="M43" s="227"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="322"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="230"/>
+      <c r="O43" s="323"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="D44" s="234">
+      <c r="C44" s="234"/>
+      <c r="D44" s="235">
         <f>1/(11+17)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="E44" s="235"/>
-      <c r="F44" s="275">
+      <c r="E44" s="236"/>
+      <c r="F44" s="276">
         <f>0/(6+8)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="276"/>
-      <c r="H44" s="234">
+      <c r="G44" s="277"/>
+      <c r="H44" s="235">
         <f>(2+2)/(9+13)</f>
         <v>0.181818181818182</v>
       </c>
-      <c r="I44" s="234">
+      <c r="I44" s="235">
         <f>0/(7+4)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="233"/>
-      <c r="K44" s="234">
+      <c r="J44" s="234"/>
+      <c r="K44" s="235">
         <f>(8+2)/(38+34)</f>
         <v>0.138888888888889</v>
       </c>
-      <c r="L44" s="275">
+      <c r="L44" s="276">
         <f>(13+3)/(46+37)</f>
         <v>0.192771084337349</v>
       </c>
-      <c r="M44" s="233"/>
-      <c r="N44" s="235"/>
-      <c r="O44" s="326"/>
+      <c r="M44" s="234"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="327"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="181"/>
-      <c r="B45" s="182" t="s">
+      <c r="A45" s="182"/>
+      <c r="B45" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228">
+      <c r="C45" s="228"/>
+      <c r="D45" s="229">
         <f>2/16</f>
         <v>0.125</v>
       </c>
-      <c r="E45" s="229"/>
-      <c r="F45" s="273">
+      <c r="E45" s="230"/>
+      <c r="F45" s="274">
         <f>1/11</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="G45" s="232">
+      <c r="G45" s="233">
         <f>3/13</f>
         <v>0.230769230769231</v>
       </c>
-      <c r="H45" s="228">
+      <c r="H45" s="229">
         <f>5/28</f>
         <v>0.178571428571429</v>
       </c>
-      <c r="I45" s="228"/>
-      <c r="J45" s="232">
+      <c r="I45" s="229"/>
+      <c r="J45" s="233">
         <f>(4+3)/(36+38)</f>
         <v>0.0945945945945946</v>
       </c>
-      <c r="K45" s="228">
+      <c r="K45" s="229">
         <f>27/126</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="L45" s="273">
+      <c r="L45" s="274">
         <f>6/56</f>
         <v>0.107142857142857</v>
       </c>
-      <c r="M45" s="232">
+      <c r="M45" s="233">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="N45" s="228">
+      <c r="N45" s="229">
         <f>3/30</f>
         <v>0.1</v>
       </c>
-      <c r="O45" s="327">
+      <c r="O45" s="328">
         <f>2/13</f>
         <v>0.153846153846154</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="181"/>
-      <c r="B46" s="182" t="s">
+      <c r="A46" s="182"/>
+      <c r="B46" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="227">
+      <c r="C46" s="228">
         <f>0/17</f>
         <v>0</v>
       </c>
-      <c r="D46" s="229"/>
-      <c r="E46" s="277">
+      <c r="D46" s="230"/>
+      <c r="E46" s="278">
         <f>0/17</f>
         <v>0</v>
       </c>
-      <c r="F46" s="273">
+      <c r="F46" s="274">
         <f>0/20</f>
         <v>0</v>
       </c>
-      <c r="G46" s="232">
+      <c r="G46" s="233">
         <f>0/20</f>
         <v>0</v>
       </c>
-      <c r="H46" s="228"/>
-      <c r="I46" s="228">
+      <c r="H46" s="229"/>
+      <c r="I46" s="229">
         <f>1/34</f>
         <v>0.0294117647058824</v>
       </c>
-      <c r="J46" s="230">
+      <c r="J46" s="231">
         <f>(4+7)/(47+48)</f>
         <v>0.115789473684211</v>
       </c>
-      <c r="K46" s="231">
+      <c r="K46" s="232">
         <f>5/58</f>
         <v>0.0862068965517241</v>
       </c>
-      <c r="L46" s="274">
+      <c r="L46" s="275">
         <f>14/281</f>
         <v>0.0498220640569395</v>
       </c>
-      <c r="M46" s="232"/>
-      <c r="N46" s="228">
+      <c r="M46" s="233"/>
+      <c r="N46" s="229">
         <f>1/28</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="O46" s="327">
+      <c r="O46" s="328">
         <f>0/47</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" ht="13.35" spans="1:15">
-      <c r="A47" s="193" t="s">
+      <c r="A47" s="194" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="182" t="s">
+      <c r="B47" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="233"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="278"/>
-      <c r="G47" s="233"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="278"/>
-      <c r="J47" s="228"/>
-      <c r="K47" s="228">
+      <c r="C47" s="234"/>
+      <c r="D47" s="236"/>
+      <c r="E47" s="236"/>
+      <c r="F47" s="279"/>
+      <c r="G47" s="234"/>
+      <c r="H47" s="236"/>
+      <c r="I47" s="279"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="229">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="L47" s="228"/>
-      <c r="M47" s="233"/>
-      <c r="N47" s="234">
+      <c r="L47" s="229"/>
+      <c r="M47" s="234"/>
+      <c r="N47" s="235">
         <f>16/69</f>
         <v>0.231884057971014</v>
       </c>
-      <c r="O47" s="328">
+      <c r="O47" s="329">
         <f>3/68</f>
         <v>0.0441176470588235</v>
       </c>
     </row>
     <row r="48" ht="13.35" spans="1:15">
-      <c r="A48" s="193"/>
-      <c r="B48" s="182" t="s">
+      <c r="A48" s="194"/>
+      <c r="B48" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="227">
+      <c r="C48" s="228">
         <f>0/12</f>
         <v>0</v>
       </c>
-      <c r="D48" s="229"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="279"/>
-      <c r="G48" s="227"/>
-      <c r="H48" s="229"/>
-      <c r="I48" s="279"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228">
+      <c r="D48" s="230"/>
+      <c r="E48" s="230"/>
+      <c r="F48" s="280"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="280"/>
+      <c r="J48" s="229"/>
+      <c r="K48" s="229">
         <f>3/31</f>
         <v>0.0967741935483871</v>
       </c>
-      <c r="L48" s="228">
+      <c r="L48" s="229">
         <f>3/29</f>
         <v>0.103448275862069</v>
       </c>
-      <c r="M48" s="232">
+      <c r="M48" s="233">
         <f>11/76</f>
         <v>0.144736842105263</v>
       </c>
-      <c r="N48" s="228">
+      <c r="N48" s="229">
         <f>41/118</f>
         <v>0.347457627118644</v>
       </c>
-      <c r="O48" s="327">
+      <c r="O48" s="328">
         <f>10/81</f>
         <v>0.123456790123457</v>
       </c>
     </row>
     <row r="49" ht="13.35" spans="1:15">
-      <c r="A49" s="193"/>
-      <c r="B49" s="195" t="s">
+      <c r="A49" s="194"/>
+      <c r="B49" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="236"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="237">
+      <c r="C49" s="237"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="238">
         <f>0/10</f>
         <v>0</v>
       </c>
-      <c r="F49" s="280"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="280"/>
-      <c r="J49" s="297"/>
-      <c r="K49" s="297">
+      <c r="F49" s="281"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="281"/>
+      <c r="J49" s="298"/>
+      <c r="K49" s="298">
         <f>0/13</f>
         <v>0</v>
       </c>
-      <c r="L49" s="297">
+      <c r="L49" s="298">
         <f>2/49</f>
         <v>0.0408163265306122</v>
       </c>
-      <c r="M49" s="329">
+      <c r="M49" s="330">
         <f>10/77</f>
         <v>0.12987012987013</v>
       </c>
-      <c r="N49" s="297">
+      <c r="N49" s="298">
         <f>1/82</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="O49" s="330">
+      <c r="O49" s="331">
         <f>11/242</f>
         <v>0.0454545454545455</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="198"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="223"/>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="223"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="223"/>
-      <c r="K50" s="223"/>
-      <c r="L50" s="223"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
-      <c r="O50" s="320"/>
+      <c r="A50" s="199"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="224"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="224"/>
+      <c r="K50" s="224"/>
+      <c r="L50" s="224"/>
+      <c r="M50" s="321"/>
+      <c r="N50" s="321"/>
+      <c r="O50" s="321"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="172" t="s">
+      <c r="A51" s="173" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="238" t="s">
+      <c r="A52" s="239" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="238" t="s">
+      <c r="A53" s="239" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="238" t="s">
+      <c r="A54" s="239" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="238" t="s">
+      <c r="A55" s="239" t="s">
         <v>136</v>
       </c>
     </row>
@@ -70740,918 +71775,918 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="12.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.2962962962963" style="159" customWidth="1"/>
-    <col min="2" max="2" width="16.8888888888889" style="159" customWidth="1"/>
-    <col min="3" max="3" width="7" style="159" customWidth="1"/>
-    <col min="4" max="4" width="6.11111111111111" style="159" customWidth="1"/>
-    <col min="5" max="5" width="7.44444444444444" style="159" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" style="159" customWidth="1"/>
-    <col min="7" max="7" width="7.88888888888889" style="159" customWidth="1"/>
-    <col min="8" max="16384" width="8.89814814814815" style="159"/>
+    <col min="1" max="1" width="30.2962962962963" style="160" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" style="160" customWidth="1"/>
+    <col min="3" max="3" width="7" style="160" customWidth="1"/>
+    <col min="4" max="4" width="6.11111111111111" style="160" customWidth="1"/>
+    <col min="5" max="5" width="7.44444444444444" style="160" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="160" customWidth="1"/>
+    <col min="7" max="7" width="7.88888888888889" style="160" customWidth="1"/>
+    <col min="8" max="16384" width="8.89814814814815" style="160"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="160" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="161">
+      <c r="C2" s="162">
         <v>39</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160" t="s">
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="161" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="161" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="163">
         <v>39</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="160"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="160"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="163">
+      <c r="C4" s="164">
         <v>157</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="160">
+      <c r="C5" s="161">
         <v>104</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="160"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
     </row>
     <row r="7" ht="50.4" spans="1:7">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="165">
+      <c r="C7" s="166">
         <v>48</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="166">
         <f t="shared" ref="D7:D18" si="0">1000*E7/C7</f>
         <v>245.833333333333</v>
       </c>
-      <c r="E7" s="165">
+      <c r="E7" s="166">
         <v>11.8</v>
       </c>
-      <c r="F7" s="165">
+      <c r="F7" s="166">
         <v>-63.5</v>
       </c>
-      <c r="G7" s="165">
+      <c r="G7" s="166">
         <v>-44.8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="165">
+      <c r="C8" s="166">
         <v>27.1</v>
       </c>
-      <c r="D8" s="165">
+      <c r="D8" s="166">
         <f t="shared" si="0"/>
         <v>612.546125461255</v>
       </c>
-      <c r="E8" s="165">
+      <c r="E8" s="166">
         <v>16.6</v>
       </c>
-      <c r="F8" s="165">
+      <c r="F8" s="166">
         <v>-59</v>
       </c>
-      <c r="G8" s="165">
+      <c r="G8" s="166">
         <v>-50.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="160"/>
-      <c r="B9" s="165" t="s">
+      <c r="A9" s="161"/>
+      <c r="B9" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="165">
+      <c r="C9" s="166">
         <v>45.7</v>
       </c>
-      <c r="D9" s="165">
+      <c r="D9" s="166">
         <f t="shared" si="0"/>
         <v>229.759299781182</v>
       </c>
-      <c r="E9" s="165">
+      <c r="E9" s="166">
         <v>10.5</v>
       </c>
-      <c r="F9" s="165">
+      <c r="F9" s="166">
         <v>-67.4</v>
       </c>
-      <c r="G9" s="165">
+      <c r="G9" s="166">
         <v>-41.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="160"/>
-      <c r="B10" s="166" t="s">
+      <c r="A10" s="161"/>
+      <c r="B10" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="166">
+      <c r="C10" s="167">
         <v>49.4</v>
       </c>
-      <c r="D10" s="166">
+      <c r="D10" s="167">
         <f t="shared" si="0"/>
         <v>80.9716599190283</v>
       </c>
-      <c r="E10" s="166">
+      <c r="E10" s="167">
         <v>4</v>
       </c>
-      <c r="F10" s="166">
+      <c r="F10" s="167">
         <v>-67.1</v>
       </c>
-      <c r="G10" s="166">
+      <c r="G10" s="167">
         <v>-42.3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="160"/>
-      <c r="B11" s="166" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="166">
+      <c r="C11" s="167">
         <v>33</v>
       </c>
-      <c r="D11" s="166">
+      <c r="D11" s="167">
         <f t="shared" si="0"/>
         <v>93.9393939393939</v>
       </c>
-      <c r="E11" s="166">
+      <c r="E11" s="167">
         <v>3.1</v>
       </c>
-      <c r="F11" s="166">
+      <c r="F11" s="167">
         <v>-66.4</v>
       </c>
-      <c r="G11" s="166">
+      <c r="G11" s="167">
         <v>-41.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="160"/>
-      <c r="B12" s="167" t="s">
+      <c r="A12" s="161"/>
+      <c r="B12" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="167">
+      <c r="C12" s="168">
         <v>79.7</v>
       </c>
-      <c r="D12" s="167">
+      <c r="D12" s="168">
         <f t="shared" si="0"/>
         <v>146.800501882058</v>
       </c>
-      <c r="E12" s="167">
+      <c r="E12" s="168">
         <v>11.7</v>
       </c>
-      <c r="F12" s="167">
+      <c r="F12" s="168">
         <v>-63.2</v>
       </c>
-      <c r="G12" s="167">
+      <c r="G12" s="168">
         <v>-48.1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="160"/>
-      <c r="B13" s="167" t="s">
+      <c r="A13" s="161"/>
+      <c r="B13" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="167">
+      <c r="C13" s="168">
         <v>95.7</v>
       </c>
-      <c r="D13" s="167">
+      <c r="D13" s="168">
         <f t="shared" si="0"/>
         <v>123.301985370951</v>
       </c>
-      <c r="E13" s="167">
+      <c r="E13" s="168">
         <v>11.8</v>
       </c>
-      <c r="F13" s="167">
+      <c r="F13" s="168">
         <v>-59.9</v>
       </c>
-      <c r="G13" s="167">
+      <c r="G13" s="168">
         <v>-41.8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="160"/>
-      <c r="B14" s="168" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="168">
+      <c r="C14" s="169">
         <v>126</v>
       </c>
-      <c r="D14" s="168">
+      <c r="D14" s="169">
         <f t="shared" si="0"/>
         <v>86.5079365079365</v>
       </c>
-      <c r="E14" s="168">
+      <c r="E14" s="169">
         <v>10.9</v>
       </c>
-      <c r="F14" s="168">
+      <c r="F14" s="169">
         <v>-65.7</v>
       </c>
-      <c r="G14" s="168">
+      <c r="G14" s="169">
         <v>-43.7</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="161">
+      <c r="C15" s="162">
         <f>AVERAGE(C7:C9)</f>
         <v>40.2666666666667</v>
       </c>
-      <c r="D15" s="161">
+      <c r="D15" s="162">
         <f t="shared" si="0"/>
         <v>322.019867549669</v>
       </c>
-      <c r="E15" s="161">
+      <c r="E15" s="162">
         <f>AVERAGE(E7:E9)</f>
         <v>12.9666666666667</v>
       </c>
-      <c r="F15" s="161">
+      <c r="F15" s="162">
         <f>AVERAGE(F7:F9)</f>
         <v>-63.3</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="162">
         <f>AVERAGE(G7:G9)</f>
         <v>-45.6</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="163">
         <f>AVERAGE(C10:C11)</f>
         <v>41.2</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="163">
         <f t="shared" si="0"/>
         <v>86.1650485436893</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="163">
         <f>AVERAGE(E10:E11)</f>
         <v>3.55</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="163">
         <f>AVERAGE(F10:F11)</f>
         <v>-66.75</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="163">
         <f>AVERAGE(G10:G11)</f>
         <v>-41.95</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="163">
+      <c r="C17" s="164">
         <f>AVERAGE(C12:C13)</f>
         <v>87.7</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="164">
         <f t="shared" si="0"/>
         <v>133.979475484607</v>
       </c>
-      <c r="E17" s="163">
+      <c r="E17" s="164">
         <f>AVERAGE(E12:E13)</f>
         <v>11.75</v>
       </c>
-      <c r="F17" s="163">
+      <c r="F17" s="164">
         <f>AVERAGE(F12:F13)</f>
         <v>-61.55</v>
       </c>
-      <c r="G17" s="163">
+      <c r="G17" s="164">
         <f>AVERAGE(G12:G13)</f>
         <v>-44.95</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="170">
         <f>C14</f>
         <v>126</v>
       </c>
-      <c r="D18" s="169">
+      <c r="D18" s="170">
         <f t="shared" si="0"/>
         <v>86.5079365079365</v>
       </c>
-      <c r="E18" s="169">
+      <c r="E18" s="170">
         <f>E14</f>
         <v>10.9</v>
       </c>
-      <c r="F18" s="169">
+      <c r="F18" s="170">
         <f>F14</f>
         <v>-65.7</v>
       </c>
-      <c r="G18" s="169">
+      <c r="G18" s="170">
         <f>G14</f>
         <v>-43.7</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:8">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="167">
+      <c r="C20" s="168">
         <v>132</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="159">
+      <c r="F20" s="160">
         <v>-64.6</v>
       </c>
-      <c r="G20" s="159">
+      <c r="G20" s="160">
         <v>-43.1</v>
       </c>
-      <c r="H20" s="159" t="s">
+      <c r="H20" s="160" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="167">
+      <c r="C21" s="168">
         <v>122</v>
       </c>
-      <c r="E21" s="159" t="s">
+      <c r="E21" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="159">
+      <c r="F21" s="160">
         <v>-64.9</v>
       </c>
-      <c r="G21" s="159">
+      <c r="G21" s="160">
         <v>-41.2</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="167">
+      <c r="C22" s="168">
         <v>251</v>
       </c>
-      <c r="E22" s="159" t="s">
+      <c r="E22" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="159">
+      <c r="F22" s="160">
         <v>-59.5</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="160">
         <v>-42.3</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="167">
+      <c r="C23" s="168">
         <v>265</v>
       </c>
-      <c r="E23" s="159" t="s">
+      <c r="E23" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="159">
+      <c r="F23" s="160">
         <v>-59.6</v>
       </c>
-      <c r="G23" s="159">
+      <c r="G23" s="160">
         <v>-43</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="168"/>
+      <c r="C24" s="169"/>
     </row>
     <row r="25" ht="26.5" customHeight="1" spans="1:8">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="167">
+      <c r="C25" s="168">
         <v>70.48</v>
       </c>
-      <c r="E25" s="159">
+      <c r="E25" s="160">
         <v>8.1</v>
       </c>
-      <c r="F25" s="159">
+      <c r="F25" s="160">
         <v>-61.76</v>
       </c>
-      <c r="G25" s="159">
+      <c r="G25" s="160">
         <v>-39</v>
       </c>
-      <c r="H25" s="159" t="s">
+      <c r="H25" s="160" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="172">
         <v>226.15</v>
       </c>
-      <c r="E26" s="159">
+      <c r="E26" s="160">
         <v>13.51</v>
       </c>
-      <c r="F26" s="159">
+      <c r="F26" s="160">
         <v>-71.43</v>
       </c>
-      <c r="G26" s="159">
+      <c r="G26" s="160">
         <v>-43.65</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="159">
+      <c r="C27" s="160">
         <v>151.28</v>
       </c>
-      <c r="E27" s="159">
+      <c r="E27" s="160">
         <v>12.55</v>
       </c>
-      <c r="F27" s="159">
+      <c r="F27" s="160">
         <v>-67.64</v>
       </c>
-      <c r="G27" s="159">
+      <c r="G27" s="160">
         <v>-33.93</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="165">
+      <c r="C29" s="166">
         <v>238</v>
       </c>
-      <c r="E29" s="159" t="s">
+      <c r="E29" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="159">
+      <c r="F29" s="160">
         <v>-75</v>
       </c>
-      <c r="G29" s="159">
+      <c r="G29" s="160">
         <v>-51.5</v>
       </c>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="160" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="159">
+      <c r="C30" s="160">
         <v>84</v>
       </c>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="159">
+      <c r="F30" s="160">
         <v>-70</v>
       </c>
-      <c r="G30" s="159">
+      <c r="G30" s="160">
         <v>-41.6</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:8">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="159">
+      <c r="C32" s="160">
         <v>407</v>
       </c>
-      <c r="F32" s="159">
+      <c r="F32" s="160">
         <v>-68.8</v>
       </c>
-      <c r="G32" s="159">
+      <c r="G32" s="160">
         <v>-39</v>
       </c>
-      <c r="H32" s="159" t="s">
+      <c r="H32" s="160" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="167" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="166">
+      <c r="C33" s="167">
         <v>474</v>
       </c>
-      <c r="F33" s="159">
+      <c r="F33" s="160">
         <v>-72.2</v>
       </c>
-      <c r="G33" s="159">
+      <c r="G33" s="160">
         <v>-36.6</v>
       </c>
     </row>
     <row r="35" ht="37.5" customHeight="1" spans="1:8">
-      <c r="A35" s="170" t="s">
+      <c r="A35" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="166">
+      <c r="C35" s="167">
         <v>70.6</v>
       </c>
-      <c r="E35" s="159">
+      <c r="E35" s="160">
         <v>2.8</v>
       </c>
-      <c r="H35" s="159" t="s">
+      <c r="H35" s="160" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="165">
+      <c r="C37" s="166">
         <v>133</v>
       </c>
-      <c r="E37" s="159">
+      <c r="E37" s="160">
         <v>17</v>
       </c>
-      <c r="F37" s="159">
+      <c r="F37" s="160">
         <v>-66</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="167" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="166">
+      <c r="C38" s="167">
         <v>55</v>
       </c>
-      <c r="E38" s="159">
+      <c r="E38" s="160">
         <v>8.8</v>
       </c>
-      <c r="F38" s="159">
+      <c r="F38" s="160">
         <v>-64</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="167">
+      <c r="C39" s="168">
         <v>82</v>
       </c>
-      <c r="E39" s="159">
+      <c r="E39" s="160">
         <v>16.4</v>
       </c>
-      <c r="F39" s="159">
+      <c r="F39" s="160">
         <v>-59</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="159" t="s">
+      <c r="A42" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="G42" s="159" t="s">
+      <c r="C42" s="166"/>
+      <c r="G42" s="160" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="165"/>
-      <c r="G43" s="159" t="s">
+      <c r="C43" s="166"/>
+      <c r="G43" s="160" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="166" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="G44" s="159" t="s">
+      <c r="C44" s="166"/>
+      <c r="G44" s="160" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="165"/>
-      <c r="G45" s="159" t="s">
+      <c r="C45" s="166"/>
+      <c r="G45" s="160" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="159" t="s">
+      <c r="A48" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="167">
+      <c r="C48" s="168">
         <v>195.3</v>
       </c>
-      <c r="F48" s="159">
+      <c r="F48" s="160">
         <v>-63.6</v>
       </c>
-      <c r="G48" s="159">
+      <c r="G48" s="160">
         <v>-45.2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="159" t="s">
+      <c r="A49" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="167">
+      <c r="C49" s="168">
         <v>282.3</v>
       </c>
-      <c r="F49" s="159">
+      <c r="F49" s="160">
         <v>-63.3</v>
       </c>
-      <c r="G49" s="159">
+      <c r="G49" s="160">
         <v>-52.7</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="167">
+      <c r="C50" s="168">
         <v>83.2</v>
       </c>
-      <c r="F50" s="159">
+      <c r="F50" s="160">
         <v>-63.9</v>
       </c>
-      <c r="G50" s="159">
+      <c r="G50" s="160">
         <v>-46.3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="159" t="s">
+      <c r="A53" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="168" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="167">
+      <c r="C53" s="168">
         <v>126.1</v>
       </c>
-      <c r="E53" s="159">
+      <c r="E53" s="160">
         <v>9.1</v>
       </c>
-      <c r="F53" s="159">
+      <c r="F53" s="160">
         <v>-66.3</v>
       </c>
-      <c r="G53" s="159">
+      <c r="G53" s="160">
         <v>-42.2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="159" t="s">
+      <c r="A54" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="167">
+      <c r="C54" s="168">
         <v>141.8</v>
       </c>
-      <c r="E54" s="159">
+      <c r="E54" s="160">
         <v>9.1</v>
       </c>
-      <c r="F54" s="159">
+      <c r="F54" s="160">
         <v>-66.6</v>
       </c>
-      <c r="G54" s="159">
+      <c r="G54" s="160">
         <v>-48.2</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="166" t="s">
+      <c r="B55" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="166">
+      <c r="C55" s="167">
         <v>84.5</v>
       </c>
-      <c r="E55" s="159">
+      <c r="E55" s="160">
         <v>3.9</v>
       </c>
-      <c r="F55" s="159">
+      <c r="F55" s="160">
         <v>-68.1</v>
       </c>
-      <c r="G55" s="159">
+      <c r="G55" s="160">
         <v>-44.1</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="166" t="s">
+      <c r="B56" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="166">
+      <c r="C56" s="167">
         <v>95.8</v>
       </c>
-      <c r="E56" s="159">
+      <c r="E56" s="160">
         <v>4.9</v>
       </c>
-      <c r="F56" s="159">
+      <c r="F56" s="160">
         <v>-68</v>
       </c>
-      <c r="G56" s="159">
+      <c r="G56" s="160">
         <v>-47.1</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="159" t="s">
+      <c r="B57" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="159">
+      <c r="C57" s="160">
         <v>131.6</v>
       </c>
-      <c r="E57" s="159">
+      <c r="E57" s="160">
         <v>5.8</v>
       </c>
-      <c r="F57" s="159">
+      <c r="F57" s="160">
         <v>-66.5</v>
       </c>
-      <c r="G57" s="159">
+      <c r="G57" s="160">
         <v>-44.2</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="159" t="s">
+      <c r="B58" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="159">
+      <c r="C58" s="160">
         <v>131.2</v>
       </c>
-      <c r="E58" s="159">
+      <c r="E58" s="160">
         <v>4.2</v>
       </c>
-      <c r="F58" s="159">
+      <c r="F58" s="160">
         <v>-77.4</v>
       </c>
-      <c r="G58" s="159">
+      <c r="G58" s="160">
         <v>-46.4</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="159" t="s">
+      <c r="B59" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="159">
+      <c r="C59" s="160">
         <v>76.7</v>
       </c>
-      <c r="E59" s="159">
+      <c r="E59" s="160">
         <v>4.6</v>
       </c>
-      <c r="F59" s="159">
+      <c r="F59" s="160">
         <v>-67.6</v>
       </c>
-      <c r="G59" s="159">
+      <c r="G59" s="160">
         <v>-41.9</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="159" t="s">
+      <c r="B61" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="159" t="s">
+      <c r="C61" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="159" t="s">
+      <c r="D61" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="159" t="s">
+      <c r="E61" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="159" t="s">
+      <c r="F61" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="159" t="s">
+      <c r="G61" s="160" t="s">
         <v>142</v>
       </c>
     </row>
@@ -71667,8 +72702,8 @@
   <sheetPr/>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -71874,7 +72909,7 @@
       <c r="D19" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="147"/>
+      <c r="E19" s="148"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="28" t="s">
@@ -71889,7 +72924,7 @@
       <c r="D20" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="147"/>
+      <c r="E20" s="148"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="28" t="s">
@@ -71904,7 +72939,7 @@
       <c r="D21" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="147"/>
+      <c r="E21" s="148"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:6">
       <c r="A22" s="28" t="s">
@@ -71919,7 +72954,7 @@
       <c r="D22" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="148"/>
+      <c r="E22" s="149"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:1">
@@ -71934,7 +72969,7 @@
       <c r="C24" s="131">
         <v>0.31</v>
       </c>
-      <c r="E24" s="147"/>
+      <c r="E24" s="148"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="139" t="s">
@@ -71943,7 +72978,7 @@
       <c r="C25" s="131">
         <v>1.93</v>
       </c>
-      <c r="E25" s="147"/>
+      <c r="E25" s="148"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="139" t="s">
@@ -71952,7 +72987,7 @@
       <c r="C26" s="131">
         <v>1.62</v>
       </c>
-      <c r="E26" s="147"/>
+      <c r="E26" s="148"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="139" t="s">
@@ -71961,7 +72996,7 @@
       <c r="C27" s="131">
         <v>4.12</v>
       </c>
-      <c r="E27" s="147"/>
+      <c r="E27" s="148"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="139" t="s">
@@ -71970,7 +73005,7 @@
       <c r="C28" s="131">
         <v>0.52</v>
       </c>
-      <c r="E28" s="147"/>
+      <c r="E28" s="148"/>
     </row>
     <row r="30" customFormat="1"/>
     <row r="31" customFormat="1"/>
@@ -72022,13 +73057,13 @@
         <f>AVERAGE(E38:E39)</f>
         <v>0.378333333333334</v>
       </c>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="143" t="s">
@@ -72050,13 +73085,13 @@
         <f>AVERAGE(E38:E39)</f>
         <v>0.378333333333334</v>
       </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="143" t="s">
@@ -72081,13 +73116,13 @@
       <c r="F38" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="143" t="s">
@@ -72097,9 +73132,9 @@
         <f>AVERAGE(B36:B38)</f>
         <v>0.581327160493827</v>
       </c>
-      <c r="C39" s="144">
-        <f>D55</f>
-        <v>2.27</v>
+      <c r="C39" s="145">
+        <f>AVERAGE(C36:C38)</f>
+        <v>0.785658914728682</v>
       </c>
       <c r="D39" s="144">
         <f>(SUMPRODUCT(E55:F55,E71:F71)/SUM(E71:F71))</f>
@@ -72109,24 +73144,24 @@
         <f>G55</f>
         <v>0.53</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="150">
         <f>AVERAGE(B36:D38,E38,C39:E39)</f>
-        <v>0.69618309319101</v>
-      </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
+        <v>0.582003009708601</v>
+      </c>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="146"/>
       <c r="C40" s="146"/>
       <c r="D40" s="146"/>
       <c r="E40" s="146"/>
-      <c r="L40" s="149"/>
+      <c r="L40" s="150"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
@@ -72135,7 +73170,7 @@
       <c r="G41" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="L41" s="149"/>
+      <c r="L41" s="150"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="28" t="s">
@@ -72162,7 +73197,7 @@
       <c r="J42" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="149"/>
+      <c r="L42" s="150"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="28" t="s">
@@ -72183,23 +73218,23 @@
       <c r="E43" s="146">
         <v>0</v>
       </c>
-      <c r="G43" s="149">
+      <c r="G43" s="150">
         <f>B43/B36</f>
         <v>0.895758347766412</v>
       </c>
-      <c r="H43" s="149">
+      <c r="H43" s="150">
         <f>C43/C36</f>
         <v>1.23719609394992</v>
       </c>
-      <c r="I43" s="149">
+      <c r="I43" s="150">
         <f>D43/D36</f>
         <v>0.758105602908033</v>
       </c>
-      <c r="J43" s="150">
+      <c r="J43" s="151">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L43" s="149"/>
+      <c r="L43" s="150"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="28" t="s">
@@ -72219,23 +73254,23 @@
       <c r="E44" s="146">
         <v>0</v>
       </c>
-      <c r="G44" s="149">
+      <c r="G44" s="150">
         <f>B44/B37</f>
         <v>0.524271844660195</v>
       </c>
-      <c r="H44" s="149">
+      <c r="H44" s="150">
         <f>C44/C37</f>
         <v>1.34209494320078</v>
       </c>
-      <c r="I44" s="150">
+      <c r="I44" s="151">
         <f>AVERAGE(I43,I45,I46)</f>
         <v>0.956619127770429</v>
       </c>
-      <c r="J44" s="150">
+      <c r="J44" s="151">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L44" s="149"/>
+      <c r="L44" s="150"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="28" t="s">
@@ -72259,23 +73294,23 @@
       <c r="F45" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="G45" s="149">
+      <c r="G45" s="150">
         <f>B45/B38</f>
         <v>1.05195925596918</v>
       </c>
-      <c r="H45" s="149">
+      <c r="H45" s="150">
         <f>C45/C38</f>
         <v>0.961830121823347</v>
       </c>
-      <c r="I45" s="149">
+      <c r="I45" s="150">
         <f>D45/D38</f>
         <v>1.23786721081587</v>
       </c>
-      <c r="J45" s="150">
+      <c r="J45" s="151">
         <f>J46</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L45" s="149"/>
+      <c r="L45" s="150"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="28" t="s">
@@ -72284,9 +73319,9 @@
       <c r="B46" s="146">
         <v>0</v>
       </c>
-      <c r="C46" s="146">
-        <f>SQRT(D63)</f>
-        <v>2.97912738901847</v>
+      <c r="C46" s="147">
+        <f>AVERAGE(C43:C45)</f>
+        <v>0.947682755854183</v>
       </c>
       <c r="D46" s="146">
         <f>SQRT(SUMPRODUCT(E63:F63,E79:F79)/SUM(E79:F79))</f>
@@ -72298,38 +73333,38 @@
       </c>
       <c r="F46" s="28">
         <f>AVERAGEIF(B43:E46,"&gt;0")</f>
-        <v>0.876841183706443</v>
-      </c>
-      <c r="G46" s="150">
+        <v>0.692164398873325</v>
+      </c>
+      <c r="G46" s="151">
         <f>AVERAGE(G43:G45)</f>
         <v>0.823996482798596</v>
       </c>
-      <c r="H46" s="149">
+      <c r="H46" s="151">
         <f>C46/C39</f>
-        <v>1.31239092027245</v>
-      </c>
-      <c r="I46" s="149">
+        <v>1.2062266946738</v>
+      </c>
+      <c r="I46" s="150">
         <f>D46/D39</f>
         <v>0.873884569587384</v>
       </c>
-      <c r="J46" s="149">
+      <c r="J46" s="150">
         <f>E46/E39</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L46" s="149"/>
+      <c r="L46" s="150"/>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="146"/>
       <c r="C47" s="146"/>
       <c r="D47" s="146"/>
       <c r="E47" s="146"/>
-      <c r="L47" s="149"/>
+      <c r="L47" s="150"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="L48" s="149"/>
+      <c r="L48" s="150"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
@@ -72805,19 +73840,19 @@
       <c r="A65" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B65" s="151" t="s">
+      <c r="B65" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="152" t="s">
+      <c r="C65" s="153" t="s">
         <v>269</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="151" t="s">
+      <c r="E65" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="F65" s="152" t="s">
+      <c r="F65" s="153" t="s">
         <v>271</v>
       </c>
       <c r="G65" s="28" t="s">
@@ -72825,48 +73860,48 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="151" t="s">
+      <c r="A66" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="151">
+      <c r="B66" s="152">
         <v>88</v>
       </c>
-      <c r="C66" s="152">
+      <c r="C66" s="153">
         <v>22</v>
       </c>
-      <c r="D66" s="153">
+      <c r="D66" s="154">
         <v>25</v>
       </c>
-      <c r="E66" s="151">
+      <c r="E66" s="152">
         <v>9</v>
       </c>
-      <c r="F66" s="152">
+      <c r="F66" s="153">
         <v>1</v>
       </c>
-      <c r="G66" s="152">
+      <c r="G66" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.35" spans="1:7">
-      <c r="A67" s="154" t="s">
+      <c r="A67" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="154">
+      <c r="B67" s="155">
         <v>10</v>
       </c>
-      <c r="C67" s="155">
+      <c r="C67" s="156">
         <v>96</v>
       </c>
-      <c r="D67" s="156">
+      <c r="D67" s="157">
         <v>25</v>
       </c>
-      <c r="E67" s="154">
+      <c r="E67" s="155">
         <v>2</v>
       </c>
-      <c r="F67" s="155">
+      <c r="F67" s="156">
         <v>3</v>
       </c>
-      <c r="G67" s="155">
+      <c r="G67" s="156">
         <v>0</v>
       </c>
     </row>
@@ -72874,19 +73909,19 @@
       <c r="A68" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="157">
+      <c r="B68" s="158">
         <v>2</v>
       </c>
-      <c r="C68" s="158">
+      <c r="C68" s="159">
         <v>4</v>
       </c>
       <c r="D68" s="28">
         <v>254</v>
       </c>
-      <c r="E68" s="157">
+      <c r="E68" s="158">
         <v>2</v>
       </c>
-      <c r="F68" s="158">
+      <c r="F68" s="159">
         <v>1</v>
       </c>
       <c r="G68" s="28">
@@ -72894,48 +73929,48 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="151">
+      <c r="B69" s="152">
         <v>20</v>
       </c>
-      <c r="C69" s="152">
+      <c r="C69" s="153">
         <v>5</v>
       </c>
-      <c r="D69" s="153">
+      <c r="D69" s="154">
         <v>32</v>
       </c>
-      <c r="E69" s="151">
+      <c r="E69" s="152">
         <v>178</v>
       </c>
-      <c r="F69" s="152">
+      <c r="F69" s="153">
         <v>3</v>
       </c>
-      <c r="G69" s="152">
+      <c r="G69" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.35" spans="1:7">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="154">
+      <c r="B70" s="155">
         <v>9</v>
       </c>
-      <c r="C70" s="155">
+      <c r="C70" s="156">
         <v>20</v>
       </c>
-      <c r="D70" s="156">
+      <c r="D70" s="157">
         <v>11</v>
       </c>
-      <c r="E70" s="154">
+      <c r="E70" s="155">
         <v>14</v>
       </c>
-      <c r="F70" s="155">
+      <c r="F70" s="156">
         <v>40</v>
       </c>
-      <c r="G70" s="155">
+      <c r="G70" s="156">
         <v>2</v>
       </c>
     </row>
@@ -72943,19 +73978,19 @@
       <c r="A71" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="154">
+      <c r="B71" s="155">
         <v>0</v>
       </c>
-      <c r="C71" s="155">
+      <c r="C71" s="156">
         <v>0</v>
       </c>
       <c r="D71" s="28">
         <v>3</v>
       </c>
-      <c r="E71" s="154">
+      <c r="E71" s="155">
         <v>5</v>
       </c>
-      <c r="F71" s="155">
+      <c r="F71" s="156">
         <v>7</v>
       </c>
       <c r="G71" s="28">
@@ -74422,7 +75457,7 @@
   <sheetPr/>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -75576,7 +76611,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" ht="12.6" spans="1:1">
       <c r="A31" s="77" t="s">
         <v>400</v>
       </c>
@@ -75817,7 +76852,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" ht="12.6" spans="1:1">
       <c r="A54" s="77" t="s">
         <v>387</v>
       </c>
